--- a/reta_aloc_files/cota-aloc.xlsx
+++ b/reta_aloc_files/cota-aloc.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82f3955c2e385cb8/Desktop/Desktop/My R Packages/lamina/lamina/reta_aloc_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcste\OneDrive\Desktop\Desktop\My R Packages\lamina\lamina\reta_aloc_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{545F9360-6F18-4D20-9721-1D4F3DA2726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A26CDE-D50B-4788-89BB-A5B3513C0DD9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101FB2CE-BE0E-47C3-9101-8ACA88EC3F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC2D0A65-1742-4752-B7E6-A8D9C8AAD11F}"/>
   </bookViews>
   <sheets>
     <sheet name="reta aloc" sheetId="2" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'reta aloc'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'reta aloc'!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Data</t>
   </si>
@@ -61,13 +64,17 @@
   <si>
     <t>CDI1</t>
   </si>
+  <si>
+    <t>PL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -102,17 +109,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -126,6 +136,2217 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet"/>
+      <sheetName val="Planilha3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Data</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Patrimonio</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>45412</v>
+          </cell>
+          <cell r="B2">
+            <v>11762552.73</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>45414</v>
+          </cell>
+          <cell r="B3">
+            <v>11766953.800000001</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>45415</v>
+          </cell>
+          <cell r="B4">
+            <v>13224959.300000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>45418</v>
+          </cell>
+          <cell r="B5">
+            <v>18695150.329999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>45419</v>
+          </cell>
+          <cell r="B6">
+            <v>19118110.329999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>45420</v>
+          </cell>
+          <cell r="B7">
+            <v>19828276.68</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>45421</v>
+          </cell>
+          <cell r="B8">
+            <v>20432466.260000002</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>45422</v>
+          </cell>
+          <cell r="B9">
+            <v>22008258.02</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>45425</v>
+          </cell>
+          <cell r="B10">
+            <v>22689331.27</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>45426</v>
+          </cell>
+          <cell r="B11">
+            <v>23514543.989999998</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>45427</v>
+          </cell>
+          <cell r="B12">
+            <v>25239143.449999999</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>45428</v>
+          </cell>
+          <cell r="B13">
+            <v>28518610.949999999</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>45429</v>
+          </cell>
+          <cell r="B14">
+            <v>29833856.030000001</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>45432</v>
+          </cell>
+          <cell r="B15">
+            <v>30735489.920000002</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>45433</v>
+          </cell>
+          <cell r="B16">
+            <v>31349214.84</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>45434</v>
+          </cell>
+          <cell r="B17">
+            <v>32119715.100000001</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>45435</v>
+          </cell>
+          <cell r="B18">
+            <v>32892998.539999999</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>45436</v>
+          </cell>
+          <cell r="B19">
+            <v>33449571.57</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>45439</v>
+          </cell>
+          <cell r="B20">
+            <v>34359506.649999999</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>45440</v>
+          </cell>
+          <cell r="B21">
+            <v>35855758.409999996</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>45441</v>
+          </cell>
+          <cell r="B22">
+            <v>38422682.119999997</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>45443</v>
+          </cell>
+          <cell r="B23">
+            <v>40303057.219999999</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>45446</v>
+          </cell>
+          <cell r="B24">
+            <v>41613660.890000001</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>45447</v>
+          </cell>
+          <cell r="B25">
+            <v>42882387.770000003</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>45448</v>
+          </cell>
+          <cell r="B26">
+            <v>43017252.219999999</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>45449</v>
+          </cell>
+          <cell r="B27">
+            <v>43096192.409999996</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>45450</v>
+          </cell>
+          <cell r="B28">
+            <v>43057727.920000002</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>45453</v>
+          </cell>
+          <cell r="B29">
+            <v>43077427.950000003</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>45454</v>
+          </cell>
+          <cell r="B30">
+            <v>43107494.780000001</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>45455</v>
+          </cell>
+          <cell r="B31">
+            <v>43125927.380000003</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>45456</v>
+          </cell>
+          <cell r="B32">
+            <v>43195881.609999999</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>45457</v>
+          </cell>
+          <cell r="B33">
+            <v>43342513.899999999</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>45460</v>
+          </cell>
+          <cell r="B34">
+            <v>43405843.57</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>45461</v>
+          </cell>
+          <cell r="B35">
+            <v>43535247.770000003</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>45462</v>
+          </cell>
+          <cell r="B36">
+            <v>43673230.799999997</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>45463</v>
+          </cell>
+          <cell r="B37">
+            <v>43697818.020000003</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>45464</v>
+          </cell>
+          <cell r="B38">
+            <v>43875421.700000003</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>45467</v>
+          </cell>
+          <cell r="B39">
+            <v>43954230.359999999</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>45468</v>
+          </cell>
+          <cell r="B40">
+            <v>43967797.509999998</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>45469</v>
+          </cell>
+          <cell r="B41">
+            <v>43974456.899999999</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>45470</v>
+          </cell>
+          <cell r="B42">
+            <v>44093224.289999999</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>45471</v>
+          </cell>
+          <cell r="B43">
+            <v>44058221.229999997</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>45474</v>
+          </cell>
+          <cell r="B44">
+            <v>44022959.43</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>45475</v>
+          </cell>
+          <cell r="B45">
+            <v>44110929.030000001</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>45476</v>
+          </cell>
+          <cell r="B46">
+            <v>44251733.670000002</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>45477</v>
+          </cell>
+          <cell r="B47">
+            <v>44369978.329999998</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>45478</v>
+          </cell>
+          <cell r="B48">
+            <v>44452542.030000001</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>45481</v>
+          </cell>
+          <cell r="B49">
+            <v>44440080.710000001</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>45482</v>
+          </cell>
+          <cell r="B50">
+            <v>44510576.340000004</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>45483</v>
+          </cell>
+          <cell r="B51">
+            <v>44644116</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>45484</v>
+          </cell>
+          <cell r="B52">
+            <v>44736339.57</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>45485</v>
+          </cell>
+          <cell r="B53">
+            <v>44791164.789999999</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>45488</v>
+          </cell>
+          <cell r="B54">
+            <v>44815349.880000003</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>45489</v>
+          </cell>
+          <cell r="B55">
+            <v>44835169.57</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>45490</v>
+          </cell>
+          <cell r="B56">
+            <v>44840790.530000001</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>45491</v>
+          </cell>
+          <cell r="B57">
+            <v>44710922.390000001</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>45492</v>
+          </cell>
+          <cell r="B58">
+            <v>44760033.469999999</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>45495</v>
+          </cell>
+          <cell r="B59">
+            <v>44824487.07</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>45496</v>
+          </cell>
+          <cell r="B60">
+            <v>44827867.439999998</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>45497</v>
+          </cell>
+          <cell r="B61">
+            <v>44823438.899999999</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>45498</v>
+          </cell>
+          <cell r="B62">
+            <v>44864851.469999999</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>45499</v>
+          </cell>
+          <cell r="B63">
+            <v>45034738.18</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>45502</v>
+          </cell>
+          <cell r="B64">
+            <v>45045461.850000001</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>45503</v>
+          </cell>
+          <cell r="B65">
+            <v>45111230.43</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>45504</v>
+          </cell>
+          <cell r="B66">
+            <v>45230176.450000003</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>45505</v>
+          </cell>
+          <cell r="B67">
+            <v>45316146.100000001</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>45506</v>
+          </cell>
+          <cell r="B68">
+            <v>45231329.130000003</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>45509</v>
+          </cell>
+          <cell r="B69">
+            <v>45241450.380000003</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>45510</v>
+          </cell>
+          <cell r="B70">
+            <v>45205264.280000001</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>45511</v>
+          </cell>
+          <cell r="B71">
+            <v>45328089.590000004</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>45512</v>
+          </cell>
+          <cell r="B72">
+            <v>45527835.859999999</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>45513</v>
+          </cell>
+          <cell r="B73">
+            <v>46193370.649999999</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>45516</v>
+          </cell>
+          <cell r="B74">
+            <v>46315335.090000004</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>45517</v>
+          </cell>
+          <cell r="B75">
+            <v>46540040.140000001</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>45518</v>
+          </cell>
+          <cell r="B76">
+            <v>46650008.100000001</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>45519</v>
+          </cell>
+          <cell r="B77">
+            <v>46805430.020000003</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>45520</v>
+          </cell>
+          <cell r="B78">
+            <v>46997371.119999997</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>45523</v>
+          </cell>
+          <cell r="B79">
+            <v>47303702.770000003</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>45524</v>
+          </cell>
+          <cell r="B80">
+            <v>47315155.310000002</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>45525</v>
+          </cell>
+          <cell r="B81">
+            <v>47338527.649999999</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>45526</v>
+          </cell>
+          <cell r="B82">
+            <v>47427455.609999999</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>45527</v>
+          </cell>
+          <cell r="B83">
+            <v>47697727.909999996</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>45530</v>
+          </cell>
+          <cell r="B84">
+            <v>47666358.210000001</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>45531</v>
+          </cell>
+          <cell r="B85">
+            <v>47741470.259999998</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>45532</v>
+          </cell>
+          <cell r="B86">
+            <v>47889994.979999997</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>45533</v>
+          </cell>
+          <cell r="B87">
+            <v>47896999.590000004</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>45534</v>
+          </cell>
+          <cell r="B88">
+            <v>47951521.340000004</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>45537</v>
+          </cell>
+          <cell r="B89">
+            <v>47964661.810000002</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>45538</v>
+          </cell>
+          <cell r="B90">
+            <v>47859417.659999996</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>45539</v>
+          </cell>
+          <cell r="B91">
+            <v>47983505.109999999</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>45540</v>
+          </cell>
+          <cell r="B92">
+            <v>47982262.380000003</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>45541</v>
+          </cell>
+          <cell r="B93">
+            <v>47877609.030000001</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>45544</v>
+          </cell>
+          <cell r="B94">
+            <v>47796770.310000002</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>45545</v>
+          </cell>
+          <cell r="B95">
+            <v>47867003.189999998</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>45546</v>
+          </cell>
+          <cell r="B96">
+            <v>47987606.899999999</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>45547</v>
+          </cell>
+          <cell r="B97">
+            <v>45967032.289999999</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>45548</v>
+          </cell>
+          <cell r="B98">
+            <v>46167403.93</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>45551</v>
+          </cell>
+          <cell r="B99">
+            <v>46172796.07</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>45552</v>
+          </cell>
+          <cell r="B100">
+            <v>46167474.32</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>45553</v>
+          </cell>
+          <cell r="B101">
+            <v>46126537.530000001</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>45554</v>
+          </cell>
+          <cell r="B102">
+            <v>46163562.009999998</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>45555</v>
+          </cell>
+          <cell r="B103">
+            <v>46087903.060000002</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>45558</v>
+          </cell>
+          <cell r="B104">
+            <v>46131605.560000002</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>45559</v>
+          </cell>
+          <cell r="B105">
+            <v>46207433.729999997</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>45560</v>
+          </cell>
+          <cell r="B106">
+            <v>46009733.380000003</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>45561</v>
+          </cell>
+          <cell r="B107">
+            <v>46096116.450000003</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>45562</v>
+          </cell>
+          <cell r="B108">
+            <v>46155409.859999999</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>45565</v>
+          </cell>
+          <cell r="B109">
+            <v>46057454.810000002</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>45566</v>
+          </cell>
+          <cell r="B110">
+            <v>46073816.630000003</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>45567</v>
+          </cell>
+          <cell r="B111">
+            <v>46066172.689999998</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>45568</v>
+          </cell>
+          <cell r="B112">
+            <v>46036035.969999999</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>45569</v>
+          </cell>
+          <cell r="B113">
+            <v>46055516.969999999</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>45572</v>
+          </cell>
+          <cell r="B114">
+            <v>45994010.640000001</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>45573</v>
+          </cell>
+          <cell r="B115">
+            <v>46068979.659999996</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>45574</v>
+          </cell>
+          <cell r="B116">
+            <v>46087849.710000001</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>45575</v>
+          </cell>
+          <cell r="B117">
+            <v>46163048.200000003</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>45576</v>
+          </cell>
+          <cell r="B118">
+            <v>46231214.210000001</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>45579</v>
+          </cell>
+          <cell r="B119">
+            <v>46247960.43</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>45580</v>
+          </cell>
+          <cell r="B120">
+            <v>46167954.600000001</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>45581</v>
+          </cell>
+          <cell r="B121">
+            <v>46151727.799999997</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>45582</v>
+          </cell>
+          <cell r="B122">
+            <v>45993104.350000001</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>45583</v>
+          </cell>
+          <cell r="B123">
+            <v>45983756.659999996</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>45586</v>
+          </cell>
+          <cell r="B124">
+            <v>45979708.18</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>45587</v>
+          </cell>
+          <cell r="B125">
+            <v>45969978.57</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>45588</v>
+          </cell>
+          <cell r="B126">
+            <v>45915226.219999999</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>45589</v>
+          </cell>
+          <cell r="B127">
+            <v>46016501.579999998</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>45590</v>
+          </cell>
+          <cell r="B128">
+            <v>45994037.079999998</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>45593</v>
+          </cell>
+          <cell r="B129">
+            <v>46041320.100000001</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>45594</v>
+          </cell>
+          <cell r="B130">
+            <v>45997935.969999999</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>45595</v>
+          </cell>
+          <cell r="B131">
+            <v>46002557.009999998</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>45596</v>
+          </cell>
+          <cell r="B132">
+            <v>45878699.909999996</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>45597</v>
+          </cell>
+          <cell r="B133">
+            <v>45750587.060000002</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>45600</v>
+          </cell>
+          <cell r="B134">
+            <v>45841181.439999998</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>45601</v>
+          </cell>
+          <cell r="B135">
+            <v>45826486</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
+            <v>45602</v>
+          </cell>
+          <cell r="B136">
+            <v>45888450.640000001</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
+            <v>45603</v>
+          </cell>
+          <cell r="B137">
+            <v>45679496.32</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>45604</v>
+          </cell>
+          <cell r="B138">
+            <v>45675403.240000002</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>45607</v>
+          </cell>
+          <cell r="B139">
+            <v>45752976.969999999</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>45608</v>
+          </cell>
+          <cell r="B140">
+            <v>45714700.93</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141">
+            <v>45609</v>
+          </cell>
+          <cell r="B141">
+            <v>45628165.350000001</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>45610</v>
+          </cell>
+          <cell r="B142">
+            <v>45662567.530000001</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
+            <v>45614</v>
+          </cell>
+          <cell r="B143">
+            <v>45383621.390000001</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>45615</v>
+          </cell>
+          <cell r="B144">
+            <v>44908084.689999998</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
+            <v>45617</v>
+          </cell>
+          <cell r="B145">
+            <v>45012277.07</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146">
+            <v>45618</v>
+          </cell>
+          <cell r="B146">
+            <v>44319996.259999998</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147">
+            <v>45621</v>
+          </cell>
+          <cell r="B147">
+            <v>44378196.32</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148">
+            <v>45622</v>
+          </cell>
+          <cell r="B148">
+            <v>44378296.68</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149">
+            <v>45623</v>
+          </cell>
+          <cell r="B149">
+            <v>43841110.990000002</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150">
+            <v>45624</v>
+          </cell>
+          <cell r="B150">
+            <v>43487158.409999996</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151">
+            <v>45625</v>
+          </cell>
+          <cell r="B151">
+            <v>43474490.68</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152">
+            <v>45628</v>
+          </cell>
+          <cell r="B152">
+            <v>43592152.770000003</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153">
+            <v>45629</v>
+          </cell>
+          <cell r="B153">
+            <v>43529147.200000003</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154">
+            <v>45630</v>
+          </cell>
+          <cell r="B154">
+            <v>43635302.469999999</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155">
+            <v>45631</v>
+          </cell>
+          <cell r="B155">
+            <v>43424347.450000003</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156">
+            <v>45632</v>
+          </cell>
+          <cell r="B156">
+            <v>43380074.719999999</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157">
+            <v>45635</v>
+          </cell>
+          <cell r="B157">
+            <v>43144368.829999998</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158">
+            <v>45636</v>
+          </cell>
+          <cell r="B158">
+            <v>42945279.039999999</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159">
+            <v>45637</v>
+          </cell>
+          <cell r="B159">
+            <v>42996420.579999998</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160">
+            <v>45638</v>
+          </cell>
+          <cell r="B160">
+            <v>42758149.409999996</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161">
+            <v>45639</v>
+          </cell>
+          <cell r="B161">
+            <v>42505894.799999997</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162">
+            <v>45642</v>
+          </cell>
+          <cell r="B162">
+            <v>41802500.350000001</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163">
+            <v>45643</v>
+          </cell>
+          <cell r="B163">
+            <v>41577824.340000004</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164">
+            <v>45644</v>
+          </cell>
+          <cell r="B164">
+            <v>41362551.5</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165">
+            <v>45645</v>
+          </cell>
+          <cell r="B165">
+            <v>41432287.07</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166">
+            <v>45646</v>
+          </cell>
+          <cell r="B166">
+            <v>41489549.520000003</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167">
+            <v>45649</v>
+          </cell>
+          <cell r="B167">
+            <v>41428203.450000003</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168">
+            <v>45650</v>
+          </cell>
+          <cell r="B168">
+            <v>41469496.369999997</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169">
+            <v>45652</v>
+          </cell>
+          <cell r="B169">
+            <v>41417725.649999999</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170">
+            <v>45653</v>
+          </cell>
+          <cell r="B170">
+            <v>41301111.460000001</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171">
+            <v>45656</v>
+          </cell>
+          <cell r="B171">
+            <v>41197536.740000002</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172">
+            <v>45657</v>
+          </cell>
+          <cell r="B172">
+            <v>41233531.280000001</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173">
+            <v>45659</v>
+          </cell>
+          <cell r="B173">
+            <v>41344049.32</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174">
+            <v>45660</v>
+          </cell>
+          <cell r="B174">
+            <v>41368054.600000001</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175">
+            <v>45663</v>
+          </cell>
+          <cell r="B175">
+            <v>41387432.829999998</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176">
+            <v>45664</v>
+          </cell>
+          <cell r="B176">
+            <v>41034062</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177">
+            <v>45665</v>
+          </cell>
+          <cell r="B177">
+            <v>41073417.32</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178">
+            <v>45666</v>
+          </cell>
+          <cell r="B178">
+            <v>40920410.060000002</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179">
+            <v>45667</v>
+          </cell>
+          <cell r="B179">
+            <v>40860129.859999999</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180">
+            <v>45670</v>
+          </cell>
+          <cell r="B180">
+            <v>40706147.939999998</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181">
+            <v>45671</v>
+          </cell>
+          <cell r="B181">
+            <v>40347536.32</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182">
+            <v>45672</v>
+          </cell>
+          <cell r="B182">
+            <v>40393103.009999998</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183">
+            <v>45673</v>
+          </cell>
+          <cell r="B183">
+            <v>40224311.07</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184">
+            <v>45674</v>
+          </cell>
+          <cell r="B184">
+            <v>40123171.189999998</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185">
+            <v>45677</v>
+          </cell>
+          <cell r="B185">
+            <v>39901347.759999998</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186">
+            <v>45678</v>
+          </cell>
+          <cell r="B186">
+            <v>39725422.810000002</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187">
+            <v>45679</v>
+          </cell>
+          <cell r="B187">
+            <v>39634662.640000001</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188">
+            <v>45680</v>
+          </cell>
+          <cell r="B188">
+            <v>39642551.93</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189">
+            <v>45681</v>
+          </cell>
+          <cell r="B189">
+            <v>39514133.770000003</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190">
+            <v>45684</v>
+          </cell>
+          <cell r="B190">
+            <v>39364951.670000002</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191">
+            <v>45685</v>
+          </cell>
+          <cell r="B191">
+            <v>39580221.960000001</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192">
+            <v>45686</v>
+          </cell>
+          <cell r="B192">
+            <v>39569298.490000002</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193">
+            <v>45687</v>
+          </cell>
+          <cell r="B193">
+            <v>39755121.520000003</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194">
+            <v>45688</v>
+          </cell>
+          <cell r="B194">
+            <v>39716788.789999999</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195">
+            <v>45691</v>
+          </cell>
+          <cell r="B195">
+            <v>39678132.689999998</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196">
+            <v>45692</v>
+          </cell>
+          <cell r="B196">
+            <v>39613514.140000001</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197">
+            <v>45693</v>
+          </cell>
+          <cell r="B197">
+            <v>39637411.68</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198">
+            <v>45694</v>
+          </cell>
+          <cell r="B198">
+            <v>39629647.280000001</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199">
+            <v>45695</v>
+          </cell>
+          <cell r="B199">
+            <v>39575786.850000001</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200">
+            <v>45698</v>
+          </cell>
+          <cell r="B200">
+            <v>39574965.590000004</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201">
+            <v>45699</v>
+          </cell>
+          <cell r="B201">
+            <v>39404187.899999999</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202">
+            <v>45700</v>
+          </cell>
+          <cell r="B202">
+            <v>39468056.140000001</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203">
+            <v>45701</v>
+          </cell>
+          <cell r="B203">
+            <v>39482775.43</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204">
+            <v>45702</v>
+          </cell>
+          <cell r="B204">
+            <v>39565282.880000003</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205">
+            <v>45705</v>
+          </cell>
+          <cell r="B205">
+            <v>39594228.850000001</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206">
+            <v>45706</v>
+          </cell>
+          <cell r="B206">
+            <v>39183418.420000002</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207">
+            <v>45707</v>
+          </cell>
+          <cell r="B207">
+            <v>38923791.299999997</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208">
+            <v>45708</v>
+          </cell>
+          <cell r="B208">
+            <v>38734645.659999996</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209">
+            <v>45709</v>
+          </cell>
+          <cell r="B209">
+            <v>38653555.600000001</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210">
+            <v>45712</v>
+          </cell>
+          <cell r="B210">
+            <v>38503718.259999998</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211">
+            <v>45713</v>
+          </cell>
+          <cell r="B211">
+            <v>38516485.149999999</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212">
+            <v>45714</v>
+          </cell>
+          <cell r="B212">
+            <v>38422758.93</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213">
+            <v>45715</v>
+          </cell>
+          <cell r="B213">
+            <v>37960559.600000001</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214">
+            <v>45716</v>
+          </cell>
+          <cell r="B214">
+            <v>37895044.090000004</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215">
+            <v>45721</v>
+          </cell>
+          <cell r="B215">
+            <v>37067753.560000002</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216">
+            <v>45722</v>
+          </cell>
+          <cell r="B216">
+            <v>36919151.759999998</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217">
+            <v>45723</v>
+          </cell>
+          <cell r="B217">
+            <v>36810860.490000002</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218">
+            <v>45726</v>
+          </cell>
+          <cell r="B218">
+            <v>36428405.759999998</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219">
+            <v>45727</v>
+          </cell>
+          <cell r="B219">
+            <v>36301123.93</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220">
+            <v>45728</v>
+          </cell>
+          <cell r="B220">
+            <v>36084737.039999999</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221">
+            <v>45729</v>
+          </cell>
+          <cell r="B221">
+            <v>35983753.020000003</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222">
+            <v>45730</v>
+          </cell>
+          <cell r="B222">
+            <v>35860872.619999997</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223">
+            <v>45733</v>
+          </cell>
+          <cell r="B223">
+            <v>35585055.770000003</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224">
+            <v>45734</v>
+          </cell>
+          <cell r="B224">
+            <v>35628441.170000002</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225">
+            <v>45735</v>
+          </cell>
+          <cell r="B225">
+            <v>35372300.490000002</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226">
+            <v>45736</v>
+          </cell>
+          <cell r="B226">
+            <v>34755017.990000002</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="A227">
+            <v>45737</v>
+          </cell>
+          <cell r="B227">
+            <v>34503068.880000003</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="A228">
+            <v>45740</v>
+          </cell>
+          <cell r="B228">
+            <v>34362623.509999998</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="A229">
+            <v>45741</v>
+          </cell>
+          <cell r="B229">
+            <v>34135541.520000003</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="A230">
+            <v>45742</v>
+          </cell>
+          <cell r="B230">
+            <v>34045611.039999999</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="A231">
+            <v>45743</v>
+          </cell>
+          <cell r="B231">
+            <v>33917845.630000003</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="A232">
+            <v>45744</v>
+          </cell>
+          <cell r="B232">
+            <v>33908950.359999999</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="A233">
+            <v>45747</v>
+          </cell>
+          <cell r="B233">
+            <v>33846317.960000001</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="A234">
+            <v>45748</v>
+          </cell>
+          <cell r="B234">
+            <v>33764049.719999999</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="A235">
+            <v>45749</v>
+          </cell>
+          <cell r="B235">
+            <v>33451910.41</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="A236">
+            <v>45750</v>
+          </cell>
+          <cell r="B236">
+            <v>33470226.760000002</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="A237">
+            <v>45751</v>
+          </cell>
+          <cell r="B237">
+            <v>33423741.260000002</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="A238">
+            <v>45754</v>
+          </cell>
+          <cell r="B238">
+            <v>33472242</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="A239">
+            <v>45755</v>
+          </cell>
+          <cell r="B239">
+            <v>33483088.23</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="A240">
+            <v>45756</v>
+          </cell>
+          <cell r="B240">
+            <v>33439829.850000001</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="A241">
+            <v>45757</v>
+          </cell>
+          <cell r="B241">
+            <v>33337805.329999998</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="A242">
+            <v>45758</v>
+          </cell>
+          <cell r="B242">
+            <v>33450271.449999999</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="A243">
+            <v>45761</v>
+          </cell>
+          <cell r="B243">
+            <v>33161847.890000001</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="A244">
+            <v>45762</v>
+          </cell>
+          <cell r="B244">
+            <v>32939209.510000002</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="A245">
+            <v>45763</v>
+          </cell>
+          <cell r="B245">
+            <v>32439366.219999999</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="A246">
+            <v>45764</v>
+          </cell>
+          <cell r="B246">
+            <v>31937952.210000001</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="A247">
+            <v>45769</v>
+          </cell>
+          <cell r="B247">
+            <v>30708769.170000002</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="A248">
+            <v>45770</v>
+          </cell>
+          <cell r="B248">
+            <v>30570507.960000001</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="A249">
+            <v>45771</v>
+          </cell>
+          <cell r="B249">
+            <v>30473150.559999999</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="A250">
+            <v>45772</v>
+          </cell>
+          <cell r="B250">
+            <v>30297058.5</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="A251">
+            <v>45775</v>
+          </cell>
+          <cell r="B251">
+            <v>30263808.960000001</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="A252">
+            <v>45776</v>
+          </cell>
+          <cell r="B252">
+            <v>29883376.440000001</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="A253">
+            <v>45777</v>
+          </cell>
+          <cell r="B253">
+            <v>29834775.640000001</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="A254">
+            <v>45779</v>
+          </cell>
+          <cell r="B254">
+            <v>29696974.010000002</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="A255">
+            <v>45782</v>
+          </cell>
+          <cell r="B255">
+            <v>29473054.219999999</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="A256">
+            <v>45783</v>
+          </cell>
+          <cell r="B256">
+            <v>29502452.66</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="A257">
+            <v>45784</v>
+          </cell>
+          <cell r="B257">
+            <v>29368106.75</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="A258">
+            <v>45785</v>
+          </cell>
+          <cell r="B258">
+            <v>29288671.359999999</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="A259">
+            <v>45786</v>
+          </cell>
+          <cell r="B259">
+            <v>29002710.129999999</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="A260">
+            <v>45789</v>
+          </cell>
+          <cell r="B260">
+            <v>28974407.640000001</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="A261">
+            <v>45790</v>
+          </cell>
+          <cell r="B261">
+            <v>29013253.34</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="A262">
+            <v>45791</v>
+          </cell>
+          <cell r="B262">
+            <v>28874143.539999999</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="A263">
+            <v>45792</v>
+          </cell>
+          <cell r="B263">
+            <v>28743347.440000001</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="A264">
+            <v>45793</v>
+          </cell>
+          <cell r="B264">
+            <v>28758557.260000002</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="A265">
+            <v>45796</v>
+          </cell>
+          <cell r="B265">
+            <v>28769652.969999999</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="A266">
+            <v>45797</v>
+          </cell>
+          <cell r="B266">
+            <v>28438626.219999999</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="A267">
+            <v>45798</v>
+          </cell>
+          <cell r="B267">
+            <v>28307424.379999999</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="A268">
+            <v>45799</v>
+          </cell>
+          <cell r="B268">
+            <v>28054351.32</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="A269">
+            <v>45800</v>
+          </cell>
+          <cell r="B269">
+            <v>28135699.670000002</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="A270">
+            <v>45803</v>
+          </cell>
+          <cell r="B270">
+            <v>28164089.609999999</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="A271">
+            <v>45804</v>
+          </cell>
+          <cell r="B271">
+            <v>27374467.059999999</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="A272">
+            <v>45805</v>
+          </cell>
+          <cell r="B272">
+            <v>27273760.370000001</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="A273">
+            <v>45806</v>
+          </cell>
+          <cell r="B273">
+            <v>27234442.079999998</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="A274">
+            <v>45807</v>
+          </cell>
+          <cell r="B274">
+            <v>26969526.829999998</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,10 +2666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DB13AA-8D9A-40F6-BD03-E8FAB1FF6A5A}">
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,9 +2678,11 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +2704,11 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45412</v>
       </c>
@@ -508,8 +2734,12 @@
         <f>F2-1</f>
         <v>4.0167999999995985E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>VLOOKUP(A2,[1]Planilha3!$A:$B,2,0)</f>
+        <v>11762552.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45414</v>
       </c>
@@ -535,8 +2765,12 @@
         <f>PRODUCT(F$2:F3)-1</f>
         <v>8.0352134682226684E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f>VLOOKUP(A3,[1]Planilha3!$A:$B,2,0)</f>
+        <v>11766953.800000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45415</v>
       </c>
@@ -562,8 +2796,12 @@
         <f>PRODUCT(F$2:F4)-1</f>
         <v>1.2055241052768562E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>VLOOKUP(A4,[1]Planilha3!$A:$B,2,0)</f>
+        <v>13224959.300000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45418</v>
       </c>
@@ -589,8 +2827,12 @@
         <f>PRODUCT(F$2:F5)-1</f>
         <v>1.6076883401994202E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f>VLOOKUP(A5,[1]Planilha3!$A:$B,2,0)</f>
+        <v>18695150.329999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45419</v>
       </c>
@@ -616,8 +2858,12 @@
         <f>PRODUCT(F$2:F6)-1</f>
         <v>2.0100141164518526E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f>VLOOKUP(A6,[1]Planilha3!$A:$B,2,0)</f>
+        <v>19118110.329999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45420</v>
       </c>
@@ -643,8 +2889,12 @@
         <f>PRODUCT(F$2:F7)-1</f>
         <v>2.4125014989220261E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f>VLOOKUP(A7,[1]Planilha3!$A:$B,2,0)</f>
+        <v>19828276.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45421</v>
       </c>
@@ -670,8 +2920,12 @@
         <f>PRODUCT(F$2:F8)-1</f>
         <v>2.8061488882604735E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f>VLOOKUP(A8,[1]Planilha3!$A:$B,2,0)</f>
+        <v>20432466.260000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45422</v>
       </c>
@@ -697,8 +2951,12 @@
         <f>PRODUCT(F$2:F9)-1</f>
         <v>3.1999508629287909E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f>VLOOKUP(A9,[1]Planilha3!$A:$B,2,0)</f>
+        <v>22008258.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45425</v>
       </c>
@@ -724,8 +2982,12 @@
         <f>PRODUCT(F$2:F10)-1</f>
         <v>3.5939074836326412E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f>VLOOKUP(A10,[1]Planilha3!$A:$B,2,0)</f>
+        <v>22689331.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45426</v>
       </c>
@@ -751,8 +3013,12 @@
         <f>PRODUCT(F$2:F11)-1</f>
         <v>3.9880188111014458E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f>VLOOKUP(A11,[1]Planilha3!$A:$B,2,0)</f>
+        <v>23514543.989999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45427</v>
       </c>
@@ -778,8 +3044,12 @@
         <f>PRODUCT(F$2:F12)-1</f>
         <v>4.3822849060883851E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f>VLOOKUP(A12,[1]Planilha3!$A:$B,2,0)</f>
+        <v>25239143.449999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45428</v>
       </c>
@@ -805,8 +3075,12 @@
         <f>PRODUCT(F$2:F13)-1</f>
         <v>4.776705829370842E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f>VLOOKUP(A13,[1]Planilha3!$A:$B,2,0)</f>
+        <v>28518610.949999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45429</v>
       </c>
@@ -832,8 +3106,12 @@
         <f>PRODUCT(F$2:F14)-1</f>
         <v>5.1712816417499585E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f>VLOOKUP(A14,[1]Planilha3!$A:$B,2,0)</f>
+        <v>29833856.030000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45432</v>
       </c>
@@ -859,8 +3137,12 @@
         <f>PRODUCT(F$2:F15)-1</f>
         <v>5.5660124040506354E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f>VLOOKUP(A15,[1]Planilha3!$A:$B,2,0)</f>
+        <v>30735489.920000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45433</v>
       </c>
@@ -886,8 +3168,12 @@
         <f>PRODUCT(F$2:F16)-1</f>
         <v>5.9608981771215319E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f>VLOOKUP(A16,[1]Planilha3!$A:$B,2,0)</f>
+        <v>31349214.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45434</v>
       </c>
@@ -913,8 +3199,12 @@
         <f>PRODUCT(F$2:F17)-1</f>
         <v>6.3559390218355105E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f>VLOOKUP(A17,[1]Planilha3!$A:$B,2,0)</f>
+        <v>32119715.100000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45435</v>
       </c>
@@ -940,8 +3230,12 @@
         <f>PRODUCT(F$2:F18)-1</f>
         <v>6.7511349990891922E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f>VLOOKUP(A18,[1]Planilha3!$A:$B,2,0)</f>
+        <v>32892998.539999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45436</v>
       </c>
@@ -967,8 +3261,12 @@
         <f>PRODUCT(F$2:F19)-1</f>
         <v>7.146486169803179E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f>VLOOKUP(A19,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33449571.57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45439</v>
       </c>
@@ -994,8 +3292,12 @@
         <f>PRODUCT(F$2:F20)-1</f>
         <v>7.5419925949220534E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f>VLOOKUP(A20,[1]Planilha3!$A:$B,2,0)</f>
+        <v>34359506.649999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45440</v>
       </c>
@@ -1021,8 +3323,12 @@
         <f>PRODUCT(F$2:F21)-1</f>
         <v>7.9376543354139351E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f>VLOOKUP(A21,[1]Planilha3!$A:$B,2,0)</f>
+        <v>35855758.409999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45441</v>
       </c>
@@ -1048,8 +3354,12 @@
         <f>PRODUCT(F$2:F22)-1</f>
         <v>8.3334714522713682E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f>VLOOKUP(A22,[1]Planilha3!$A:$B,2,0)</f>
+        <v>38422682.119999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45443</v>
       </c>
@@ -1075,8 +3385,13 @@
         <f>PRODUCT(F$2:F23)-1</f>
         <v>8.729444006510656E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f>VLOOKUP(A23,[1]Planilha3!$A:$B,2,0)</f>
+        <v>40303057.219999999</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45446</v>
       </c>
@@ -1102,8 +3417,12 @@
         <f>PRODUCT(F$2:F24)-1</f>
         <v>9.1255720591718603E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f>VLOOKUP(A24,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41613660.890000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45447</v>
       </c>
@@ -1129,8 +3448,12 @@
         <f>PRODUCT(F$2:F25)-1</f>
         <v>9.521855671319468E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f>VLOOKUP(A25,[1]Planilha3!$A:$B,2,0)</f>
+        <v>42882387.770000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45448</v>
       </c>
@@ -1156,8 +3479,12 @@
         <f>PRODUCT(F$2:F26)-1</f>
         <v>9.9182949040415025E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f>VLOOKUP(A26,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43017252.219999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45449</v>
       </c>
@@ -1183,8 +3510,12 @@
         <f>PRODUCT(F$2:F27)-1</f>
         <v>1.031488981845019E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f>VLOOKUP(A27,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43096192.409999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45450</v>
       </c>
@@ -1210,8 +3541,12 @@
         <f>PRODUCT(F$2:F28)-1</f>
         <v>1.0711640475681738E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f>VLOOKUP(A28,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43057727.920000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45453</v>
       </c>
@@ -1237,8 +3572,12 @@
         <f>PRODUCT(F$2:F29)-1</f>
         <v>1.1108546936896557E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f>VLOOKUP(A29,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43077427.950000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45454</v>
       </c>
@@ -1264,8 +3603,12 @@
         <f>PRODUCT(F$2:F30)-1</f>
         <v>1.1505609263278593E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f>VLOOKUP(A30,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43107494.780000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45455</v>
       </c>
@@ -1291,8 +3634,12 @@
         <f>PRODUCT(F$2:F31)-1</f>
         <v>1.1902827516036218E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f>VLOOKUP(A31,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43125927.380000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45456</v>
       </c>
@@ -1318,8 +3665,12 @@
         <f>PRODUCT(F$2:F32)-1</f>
         <v>1.2300201756401785E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f>VLOOKUP(A32,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43195881.609999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45457</v>
       </c>
@@ -1345,8 +3696,12 @@
         <f>PRODUCT(F$2:F33)-1</f>
         <v>1.2697732045631405E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f>VLOOKUP(A33,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43342513.899999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45460</v>
       </c>
@@ -1372,8 +3727,12 @@
         <f>PRODUCT(F$2:F34)-1</f>
         <v>1.3095418445005613E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <f>VLOOKUP(A34,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43405843.57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45461</v>
       </c>
@@ -1399,8 +3758,12 @@
         <f>PRODUCT(F$2:F35)-1</f>
         <v>1.3493261015828928E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <f>VLOOKUP(A35,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43535247.770000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45462</v>
       </c>
@@ -1426,8 +3789,12 @@
         <f>PRODUCT(F$2:F36)-1</f>
         <v>1.3891259819429846E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <f>VLOOKUP(A36,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43673230.799999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45463</v>
       </c>
@@ -1453,8 +3820,12 @@
         <f>PRODUCT(F$2:F37)-1</f>
         <v>1.4289414917160848E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <f>VLOOKUP(A37,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43697818.020000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45464</v>
       </c>
@@ -1480,8 +3851,12 @@
         <f>PRODUCT(F$2:F38)-1</f>
         <v>1.4687726370398835E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <f>VLOOKUP(A38,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43875421.700000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45467</v>
       </c>
@@ -1507,8 +3882,12 @@
         <f>PRODUCT(F$2:F39)-1</f>
         <v>1.508619424054447E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <f>VLOOKUP(A39,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43954230.359999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45468</v>
       </c>
@@ -1534,8 +3913,12 @@
         <f>PRODUCT(F$2:F40)-1</f>
         <v>1.548481858902262E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <f>VLOOKUP(A40,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43967797.509999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45469</v>
       </c>
@@ -1561,8 +3944,12 @@
         <f>PRODUCT(F$2:F41)-1</f>
         <v>1.5883599477282351E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <f>VLOOKUP(A41,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43974456.899999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45470</v>
       </c>
@@ -1588,8 +3975,12 @@
         <f>PRODUCT(F$2:F42)-1</f>
         <v>1.6282536966796934E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <f>VLOOKUP(A42,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44093224.289999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45471</v>
       </c>
@@ -1615,8 +4006,12 @@
         <f>PRODUCT(F$2:F43)-1</f>
         <v>1.6681631119063622E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <f>VLOOKUP(A43,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44058221.229999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45474</v>
       </c>
@@ -1642,8 +4037,12 @@
         <f>PRODUCT(F$2:F44)-1</f>
         <v>1.7080881995604091E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <f>VLOOKUP(A44,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44022959.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45475</v>
       </c>
@@ -1669,8 +4068,12 @@
         <f>PRODUCT(F$2:F45)-1</f>
         <v>1.7480289657963777E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <f>VLOOKUP(A45,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44110929.030000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45476</v>
       </c>
@@ -1696,8 +4099,12 @@
         <f>PRODUCT(F$2:F46)-1</f>
         <v>1.7879854167712317E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <f>VLOOKUP(A46,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44251733.670000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45477</v>
       </c>
@@ -1723,8 +4130,12 @@
         <f>PRODUCT(F$2:F47)-1</f>
         <v>1.8279575586443997E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <f>VLOOKUP(A47,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44369978.329999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45478</v>
       </c>
@@ -1750,8 +4161,12 @@
         <f>PRODUCT(F$2:F48)-1</f>
         <v>1.8679453975776639E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <f>VLOOKUP(A48,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44452542.030000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45481</v>
       </c>
@@ -1777,8 +4192,12 @@
         <f>PRODUCT(F$2:F49)-1</f>
         <v>1.9079489397352933E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <f>VLOOKUP(A49,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44440080.710000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45482</v>
       </c>
@@ -1804,8 +4223,12 @@
         <f>PRODUCT(F$2:F50)-1</f>
         <v>1.9479681912839109E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <f>VLOOKUP(A50,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44510576.340000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45483</v>
       </c>
@@ -1831,8 +4254,12 @@
         <f>PRODUCT(F$2:F51)-1</f>
         <v>1.9880031583926261E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <f>VLOOKUP(A51,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44644116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45484</v>
       </c>
@@ -1858,8 +4285,12 @@
         <f>PRODUCT(F$2:F52)-1</f>
         <v>2.0280538472329246E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <f>VLOOKUP(A52,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44736339.57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45485</v>
       </c>
@@ -1885,8 +4316,12 @@
         <f>PRODUCT(F$2:F53)-1</f>
         <v>2.0681202639787344E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <f>VLOOKUP(A53,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44791164.789999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45488</v>
       </c>
@@ -1912,8 +4347,12 @@
         <f>PRODUCT(F$2:F54)-1</f>
         <v>2.1082024148063816E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <f>VLOOKUP(A54,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44815349.880000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45489</v>
       </c>
@@ -1939,8 +4378,12 @@
         <f>PRODUCT(F$2:F55)-1</f>
         <v>2.148300305894657E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <f>VLOOKUP(A55,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44835169.57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45490</v>
       </c>
@@ -1966,8 +4409,12 @@
         <f>PRODUCT(F$2:F56)-1</f>
         <v>2.1884139434247718E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <f>VLOOKUP(A56,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44840790.530000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45491</v>
       </c>
@@ -1993,8 +4440,12 @@
         <f>PRODUCT(F$2:F57)-1</f>
         <v>2.2285433335803351E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <f>VLOOKUP(A57,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44710922.390000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45492</v>
       </c>
@@ -2020,8 +4471,12 @@
         <f>PRODUCT(F$2:F58)-1</f>
         <v>2.2686884825474207E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <f>VLOOKUP(A58,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44760033.469999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45495</v>
       </c>
@@ -2047,8 +4502,12 @@
         <f>PRODUCT(F$2:F59)-1</f>
         <v>2.3088493965145007E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <f>VLOOKUP(A59,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44824487.07</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45496</v>
       </c>
@@ -2074,8 +4533,12 @@
         <f>PRODUCT(F$2:F60)-1</f>
         <v>2.3490260816725117E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <f>VLOOKUP(A60,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44827867.439999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45497</v>
       </c>
@@ -2101,8 +4564,12 @@
         <f>PRODUCT(F$2:F61)-1</f>
         <v>2.3892185442147662E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <f>VLOOKUP(A61,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44823438.899999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45498</v>
       </c>
@@ -2128,8 +4595,12 @@
         <f>PRODUCT(F$2:F62)-1</f>
         <v>2.4294267903370637E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <f>VLOOKUP(A62,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44864851.469999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45499</v>
       </c>
@@ -2155,8 +4626,12 @@
         <f>PRODUCT(F$2:F63)-1</f>
         <v>2.4696508262376238E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <f>VLOOKUP(A63,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45034738.18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45502</v>
       </c>
@@ -2182,8 +4657,12 @@
         <f>PRODUCT(F$2:F64)-1</f>
         <v>2.5098906581170866E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <f>VLOOKUP(A64,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45045461.850000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45503</v>
       </c>
@@ -2209,8 +4688,12 @@
         <f>PRODUCT(F$2:F65)-1</f>
         <v>2.5501462921785123E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <f>VLOOKUP(A65,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45111230.43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45504</v>
       </c>
@@ -2236,8 +4719,12 @@
         <f>PRODUCT(F$2:F66)-1</f>
         <v>2.5904177346274482E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <f>VLOOKUP(A66,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45230176.450000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45505</v>
       </c>
@@ -2263,8 +4750,12 @@
         <f>PRODUCT(F$2:F67)-1</f>
         <v>2.6307049916718173E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <f>VLOOKUP(A67,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45316146.100000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45506</v>
       </c>
@@ -2290,8 +4781,12 @@
         <f>PRODUCT(F$2:F68)-1</f>
         <v>2.6710080695220295E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <f>VLOOKUP(A68,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45231329.130000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45509</v>
       </c>
@@ -2317,8 +4812,12 @@
         <f>PRODUCT(F$2:F69)-1</f>
         <v>2.7113269743909152E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <f>VLOOKUP(A69,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45241450.380000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45510</v>
       </c>
@@ -2344,8 +4843,12 @@
         <f>PRODUCT(F$2:F70)-1</f>
         <v>2.751661712493747E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <f>VLOOKUP(A70,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45205264.280000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45511</v>
       </c>
@@ -2371,8 +4874,12 @@
         <f>PRODUCT(F$2:F71)-1</f>
         <v>2.7920122900482403E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <f>VLOOKUP(A71,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45328089.590000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45512</v>
       </c>
@@ -2398,8 +4905,12 @@
         <f>PRODUCT(F$2:F72)-1</f>
         <v>2.8323787132745304E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <f>VLOOKUP(A72,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45527835.859999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45513</v>
       </c>
@@ -2425,8 +4936,12 @@
         <f>PRODUCT(F$2:F73)-1</f>
         <v>2.8727609883952177E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <f>VLOOKUP(A73,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46193370.649999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45516</v>
       </c>
@@ -2452,8 +4967,12 @@
         <f>PRODUCT(F$2:F74)-1</f>
         <v>2.9131591216353447E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <f>VLOOKUP(A74,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46315335.090000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45517</v>
       </c>
@@ -2479,8 +4998,12 @@
         <f>PRODUCT(F$2:F75)-1</f>
         <v>2.9535731192223968E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <f>VLOOKUP(A75,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46540040.140000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45518</v>
       </c>
@@ -2506,8 +5029,12 @@
         <f>PRODUCT(F$2:F76)-1</f>
         <v>2.9940029873863017E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <f>VLOOKUP(A76,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46650008.100000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45519</v>
       </c>
@@ -2533,8 +5060,12 @@
         <f>PRODUCT(F$2:F77)-1</f>
         <v>3.0344487323594294E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <f>VLOOKUP(A77,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46805430.020000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45520</v>
       </c>
@@ -2560,8 +5091,12 @@
         <f>PRODUCT(F$2:F78)-1</f>
         <v>3.0749103603766148E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <f>VLOOKUP(A78,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46997371.119999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45523</v>
       </c>
@@ -2587,8 +5122,12 @@
         <f>PRODUCT(F$2:F79)-1</f>
         <v>3.1153878776751354E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <f>VLOOKUP(A79,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47303702.770000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45524</v>
       </c>
@@ -2614,8 +5153,12 @@
         <f>PRODUCT(F$2:F80)-1</f>
         <v>3.1558812904946887E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <f>VLOOKUP(A80,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47315155.310000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45525</v>
       </c>
@@ -2641,8 +5184,12 @@
         <f>PRODUCT(F$2:F81)-1</f>
         <v>3.1963906050774593E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <f>VLOOKUP(A81,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47338527.649999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45526</v>
       </c>
@@ -2668,8 +5215,12 @@
         <f>PRODUCT(F$2:F82)-1</f>
         <v>3.2369158276680743E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <f>VLOOKUP(A82,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47427455.609999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45527</v>
       </c>
@@ -2695,8 +5246,12 @@
         <f>PRODUCT(F$2:F83)-1</f>
         <v>3.2774569645135809E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <f>VLOOKUP(A83,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47697727.909999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45530</v>
       </c>
@@ -2722,8 +5277,12 @@
         <f>PRODUCT(F$2:F84)-1</f>
         <v>3.3180140218635357E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <f>VLOOKUP(A84,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47666358.210000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45531</v>
       </c>
@@ -2749,8 +5308,12 @@
         <f>PRODUCT(F$2:F85)-1</f>
         <v>3.3585870059699152E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <f>VLOOKUP(A85,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47741470.259999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45532</v>
       </c>
@@ -2776,8 +5339,12 @@
         <f>PRODUCT(F$2:F86)-1</f>
         <v>3.399175923087161E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <f>VLOOKUP(A86,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47889994.979999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45533</v>
       </c>
@@ -2803,8 +5370,12 @@
         <f>PRODUCT(F$2:F87)-1</f>
         <v>3.4397807794721569E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <f>VLOOKUP(A87,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47896999.590000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45534</v>
       </c>
@@ -2830,8 +5401,12 @@
         <f>PRODUCT(F$2:F88)-1</f>
         <v>3.4804015813842515E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <f>VLOOKUP(A88,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47951521.340000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45537</v>
       </c>
@@ -2857,8 +5432,12 @@
         <f>PRODUCT(F$2:F89)-1</f>
         <v>3.5210383350852581E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <f>VLOOKUP(A89,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47964661.810000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45538</v>
       </c>
@@ -2884,8 +5463,12 @@
         <f>PRODUCT(F$2:F90)-1</f>
         <v>3.5616910468394325E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <f>VLOOKUP(A90,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47859417.659999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45539</v>
       </c>
@@ -2911,8 +5494,12 @@
         <f>PRODUCT(F$2:F91)-1</f>
         <v>3.6023597229135174E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <f>VLOOKUP(A91,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47983505.109999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45540</v>
       </c>
@@ -2938,8 +5525,12 @@
         <f>PRODUCT(F$2:F92)-1</f>
         <v>3.6430443695766979E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <f>VLOOKUP(A92,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47982262.380000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45541</v>
       </c>
@@ -2965,8 +5556,12 @@
         <f>PRODUCT(F$2:F93)-1</f>
         <v>3.6837449931006239E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <f>VLOOKUP(A93,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47877609.030000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45544</v>
       </c>
@@ -2992,8 +5587,12 @@
         <f>PRODUCT(F$2:F94)-1</f>
         <v>3.7244615997594099E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <f>VLOOKUP(A94,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47796770.310000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45545</v>
       </c>
@@ -3019,8 +5618,12 @@
         <f>PRODUCT(F$2:F95)-1</f>
         <v>3.7651941958296353E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <f>VLOOKUP(A95,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47867003.189999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45546</v>
       </c>
@@ -3046,8 +5649,12 @@
         <f>PRODUCT(F$2:F96)-1</f>
         <v>3.8059427875903218E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <f>VLOOKUP(A96,[1]Planilha3!$A:$B,2,0)</f>
+        <v>47987606.899999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45547</v>
       </c>
@@ -3073,8 +5680,12 @@
         <f>PRODUCT(F$2:F97)-1</f>
         <v>3.8467073813230002E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <f>VLOOKUP(A97,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45967032.289999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45548</v>
       </c>
@@ -3100,8 +5711,12 @@
         <f>PRODUCT(F$2:F98)-1</f>
         <v>3.8874879833116438E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <f>VLOOKUP(A98,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46167403.93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45551</v>
       </c>
@@ -3127,8 +5742,12 @@
         <f>PRODUCT(F$2:F99)-1</f>
         <v>3.9282845998426907E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <f>VLOOKUP(A99,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46172796.07</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45552</v>
       </c>
@@ -3154,8 +5773,12 @@
         <f>PRODUCT(F$2:F100)-1</f>
         <v>3.9690972372050437E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <f>VLOOKUP(A100,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46167474.32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45553</v>
       </c>
@@ -3181,8 +5804,12 @@
         <f>PRODUCT(F$2:F101)-1</f>
         <v>4.0099259016900923E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101">
+        <f>VLOOKUP(A101,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46126537.530000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45554</v>
       </c>
@@ -3208,8 +5835,12 @@
         <f>PRODUCT(F$2:F102)-1</f>
         <v>4.0517046087262809E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <f>VLOOKUP(A102,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46163562.009999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45555</v>
       </c>
@@ -3235,8 +5866,12 @@
         <f>PRODUCT(F$2:F103)-1</f>
         <v>4.0935000974335001E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <f>VLOOKUP(A103,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46087903.060000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45558</v>
       </c>
@@ -3262,8 +5897,12 @@
         <f>PRODUCT(F$2:F104)-1</f>
         <v>4.1353123745526243E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <f>VLOOKUP(A104,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46131605.560000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45559</v>
       </c>
@@ -3289,8 +5928,12 @@
         <f>PRODUCT(F$2:F105)-1</f>
         <v>4.1771414468272372E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <f>VLOOKUP(A105,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46207433.729999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45560</v>
       </c>
@@ -3316,8 +5959,12 @@
         <f>PRODUCT(F$2:F106)-1</f>
         <v>4.2189873210035866E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <f>VLOOKUP(A106,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46009733.380000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45561</v>
       </c>
@@ -3343,8 +5990,12 @@
         <f>PRODUCT(F$2:F107)-1</f>
         <v>4.260850003830674E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107">
+        <f>VLOOKUP(A107,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46096116.450000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45562</v>
       </c>
@@ -3370,8 +6021,12 @@
         <f>PRODUCT(F$2:F108)-1</f>
         <v>4.3027295020602097E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108">
+        <f>VLOOKUP(A108,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46155409.859999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45565</v>
       </c>
@@ -3397,8 +6052,12 @@
         <f>PRODUCT(F$2:F109)-1</f>
         <v>4.3446258224465906E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109">
+        <f>VLOOKUP(A109,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46057454.810000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45566</v>
       </c>
@@ -3424,8 +6083,12 @@
         <f>PRODUCT(F$2:F110)-1</f>
         <v>4.386538971746945E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110">
+        <f>VLOOKUP(A110,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46073816.630000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45567</v>
       </c>
@@ -3451,8 +6114,12 @@
         <f>PRODUCT(F$2:F111)-1</f>
         <v>4.42846895672111E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111">
+        <f>VLOOKUP(A111,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46066172.689999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45568</v>
       </c>
@@ -3478,8 +6145,12 @@
         <f>PRODUCT(F$2:F112)-1</f>
         <v>4.4704157841316317E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112">
+        <f>VLOOKUP(A112,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46036035.969999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45569</v>
       </c>
@@ -3505,8 +6176,12 @@
         <f>PRODUCT(F$2:F113)-1</f>
         <v>4.5123794607437873E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113">
+        <f>VLOOKUP(A113,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46055516.969999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45572</v>
       </c>
@@ -3532,8 +6207,12 @@
         <f>PRODUCT(F$2:F114)-1</f>
         <v>4.5543599933255852E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114">
+        <f>VLOOKUP(A114,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45994010.640000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45573</v>
       </c>
@@ -3559,8 +6238,12 @@
         <f>PRODUCT(F$2:F115)-1</f>
         <v>4.5963573886476983E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <f>VLOOKUP(A115,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46068979.659999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45574</v>
       </c>
@@ -3586,8 +6269,12 @@
         <f>PRODUCT(F$2:F116)-1</f>
         <v>4.6383716534835751E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116">
+        <f>VLOOKUP(A116,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46087849.710000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45575</v>
       </c>
@@ -3613,8 +6300,12 @@
         <f>PRODUCT(F$2:F117)-1</f>
         <v>4.6804027946093507E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <f>VLOOKUP(A117,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46163048.200000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45576</v>
       </c>
@@ -3640,8 +6331,12 @@
         <f>PRODUCT(F$2:F118)-1</f>
         <v>4.7224508188038916E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <f>VLOOKUP(A118,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46231214.210000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45579</v>
       </c>
@@ -3667,8 +6362,12 @@
         <f>PRODUCT(F$2:F119)-1</f>
         <v>4.7645157328487953E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <f>VLOOKUP(A119,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46247960.43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45580</v>
       </c>
@@ -3694,8 +6393,12 @@
         <f>PRODUCT(F$2:F120)-1</f>
         <v>4.8065975435283681E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <f>VLOOKUP(A120,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46167954.600000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45581</v>
       </c>
@@ -3721,8 +6424,12 @@
         <f>PRODUCT(F$2:F121)-1</f>
         <v>4.8486962576296477E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121">
+        <f>VLOOKUP(A121,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46151727.799999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45582</v>
       </c>
@@ -3748,8 +6455,12 @@
         <f>PRODUCT(F$2:F122)-1</f>
         <v>4.8908118819424029E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122">
+        <f>VLOOKUP(A122,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45993104.350000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45583</v>
       </c>
@@ -3775,8 +6486,12 @@
         <f>PRODUCT(F$2:F123)-1</f>
         <v>4.9329444232591335E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123">
+        <f>VLOOKUP(A123,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45983756.659999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45586</v>
       </c>
@@ -3802,8 +6517,12 @@
         <f>PRODUCT(F$2:F124)-1</f>
         <v>4.9750938883750706E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124">
+        <f>VLOOKUP(A124,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45979708.18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45587</v>
       </c>
@@ -3829,8 +6548,12 @@
         <f>PRODUCT(F$2:F125)-1</f>
         <v>5.0172602840881542E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <f>VLOOKUP(A125,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45969978.57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45588</v>
       </c>
@@ -3856,8 +6579,12 @@
         <f>PRODUCT(F$2:F126)-1</f>
         <v>5.0594436171990553E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <f>VLOOKUP(A126,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45915226.219999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45589</v>
       </c>
@@ -3883,8 +6610,12 @@
         <f>PRODUCT(F$2:F127)-1</f>
         <v>5.1016438945111986E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <f>VLOOKUP(A127,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46016501.579999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45590</v>
       </c>
@@ -3910,8 +6641,12 @@
         <f>PRODUCT(F$2:F128)-1</f>
         <v>5.1438611228307396E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <f>VLOOKUP(A128,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45994037.079999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45593</v>
       </c>
@@ -3937,8 +6672,12 @@
         <f>PRODUCT(F$2:F129)-1</f>
         <v>5.1860953089665651E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129">
+        <f>VLOOKUP(A129,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46041320.100000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45594</v>
       </c>
@@ -3964,8 +6703,12 @@
         <f>PRODUCT(F$2:F130)-1</f>
         <v>5.2283464597302709E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130">
+        <f>VLOOKUP(A130,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45997935.969999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45595</v>
       </c>
@@ -3991,8 +6734,12 @@
         <f>PRODUCT(F$2:F131)-1</f>
         <v>5.270614581936206E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131">
+        <f>VLOOKUP(A131,[1]Planilha3!$A:$B,2,0)</f>
+        <v>46002557.009999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45596</v>
       </c>
@@ -4018,8 +6765,12 @@
         <f>PRODUCT(F$2:F132)-1</f>
         <v>5.3128996824014729E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <f>VLOOKUP(A132,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45878699.909999996</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45597</v>
       </c>
@@ -4045,8 +6796,12 @@
         <f>PRODUCT(F$2:F133)-1</f>
         <v>5.3552017679459052E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133">
+        <f>VLOOKUP(A133,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45750587.060000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45600</v>
       </c>
@@ -4072,8 +6827,12 @@
         <f>PRODUCT(F$2:F134)-1</f>
         <v>5.3975208453920454E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134">
+        <f>VLOOKUP(A134,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45841181.439999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45601</v>
       </c>
@@ -4099,8 +6858,12 @@
         <f>PRODUCT(F$2:F135)-1</f>
         <v>5.4398569215652115E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135">
+        <f>VLOOKUP(A135,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45826486</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45602</v>
       </c>
@@ -4126,8 +6889,12 @@
         <f>PRODUCT(F$2:F136)-1</f>
         <v>5.4822100032934529E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136">
+        <f>VLOOKUP(A136,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45888450.640000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45603</v>
       </c>
@@ -4153,8 +6920,12 @@
         <f>PRODUCT(F$2:F137)-1</f>
         <v>5.5264671741445337E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137">
+        <f>VLOOKUP(A137,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45679496.32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45604</v>
       </c>
@@ -4180,8 +6951,12 @@
         <f>PRODUCT(F$2:F138)-1</f>
         <v>5.5707429139767894E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138">
+        <f>VLOOKUP(A138,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45675403.240000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45607</v>
       </c>
@@ -4207,8 +6982,12 @@
         <f>PRODUCT(F$2:F139)-1</f>
         <v>5.6150372305812102E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139">
+        <f>VLOOKUP(A139,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45752976.969999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45608</v>
       </c>
@@ -4234,8 +7013,12 @@
         <f>PRODUCT(F$2:F140)-1</f>
         <v>5.65935013175205E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140">
+        <f>VLOOKUP(A140,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45714700.93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45609</v>
       </c>
@@ -4261,8 +7044,12 @@
         <f>PRODUCT(F$2:F141)-1</f>
         <v>5.7036816252868272E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141">
+        <f>VLOOKUP(A141,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45628165.350000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45610</v>
       </c>
@@ -4288,8 +7075,12 @@
         <f>PRODUCT(F$2:F142)-1</f>
         <v>5.7480317189863461E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142">
+        <f>VLOOKUP(A142,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45662567.530000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45614</v>
       </c>
@@ -4315,8 +7106,12 @@
         <f>PRODUCT(F$2:F143)-1</f>
         <v>5.7924004206546753E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143">
+        <f>VLOOKUP(A143,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45383621.390000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45615</v>
       </c>
@@ -4342,8 +7137,12 @@
         <f>PRODUCT(F$2:F144)-1</f>
         <v>5.8367877380991695E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144">
+        <f>VLOOKUP(A144,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44908084.689999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45617</v>
       </c>
@@ -4369,8 +7168,12 @@
         <f>PRODUCT(F$2:F145)-1</f>
         <v>5.8811936791304475E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145">
+        <f>VLOOKUP(A145,[1]Planilha3!$A:$B,2,0)</f>
+        <v>45012277.07</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45618</v>
       </c>
@@ -4396,8 +7199,12 @@
         <f>PRODUCT(F$2:F146)-1</f>
         <v>5.9256182515624145E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146">
+        <f>VLOOKUP(A146,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44319996.259999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45621</v>
       </c>
@@ -4423,8 +7230,12 @@
         <f>PRODUCT(F$2:F147)-1</f>
         <v>5.9700614632122173E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147">
+        <f>VLOOKUP(A147,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44378196.32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45622</v>
       </c>
@@ -4450,8 +7261,12 @@
         <f>PRODUCT(F$2:F148)-1</f>
         <v>6.0145233219003336E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148">
+        <f>VLOOKUP(A148,[1]Planilha3!$A:$B,2,0)</f>
+        <v>44378296.68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45623</v>
       </c>
@@ -4477,8 +7292,12 @@
         <f>PRODUCT(F$2:F149)-1</f>
         <v>6.0590038354505049E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149">
+        <f>VLOOKUP(A149,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43841110.990000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45624</v>
       </c>
@@ -4504,8 +7323,12 @@
         <f>PRODUCT(F$2:F150)-1</f>
         <v>6.1035030116897593E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150">
+        <f>VLOOKUP(A150,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43487158.409999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45625</v>
       </c>
@@ -4531,8 +7354,12 @@
         <f>PRODUCT(F$2:F151)-1</f>
         <v>6.1480208584483886E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151">
+        <f>VLOOKUP(A151,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43474490.68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45628</v>
       </c>
@@ -4558,8 +7385,12 @@
         <f>PRODUCT(F$2:F152)-1</f>
         <v>6.1925573835599712E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152">
+        <f>VLOOKUP(A152,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43592152.770000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45629</v>
       </c>
@@ -4585,8 +7416,12 @@
         <f>PRODUCT(F$2:F153)-1</f>
         <v>6.2371125948613937E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153">
+        <f>VLOOKUP(A153,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43529147.200000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45630</v>
       </c>
@@ -4612,8 +7447,12 @@
         <f>PRODUCT(F$2:F154)-1</f>
         <v>6.281686500192829E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154">
+        <f>VLOOKUP(A154,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43635302.469999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45631</v>
       </c>
@@ -4639,8 +7478,12 @@
         <f>PRODUCT(F$2:F155)-1</f>
         <v>6.3262791073977143E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155">
+        <f>VLOOKUP(A155,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43424347.450000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45632</v>
       </c>
@@ -4666,8 +7509,12 @@
         <f>PRODUCT(F$2:F156)-1</f>
         <v>6.370890424322817E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156">
+        <f>VLOOKUP(A156,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43380074.719999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45635</v>
       </c>
@@ -4693,8 +7540,12 @@
         <f>PRODUCT(F$2:F157)-1</f>
         <v>6.4155204588181469E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157">
+        <f>VLOOKUP(A157,[1]Planilha3!$A:$B,2,0)</f>
+        <v>43144368.829999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45636</v>
       </c>
@@ -4720,8 +7571,12 @@
         <f>PRODUCT(F$2:F158)-1</f>
         <v>6.4601692187370663E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158">
+        <f>VLOOKUP(A158,[1]Planilha3!$A:$B,2,0)</f>
+        <v>42945279.039999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45637</v>
       </c>
@@ -4747,8 +7602,12 @@
         <f>PRODUCT(F$2:F159)-1</f>
         <v>6.5048367119361794E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159">
+        <f>VLOOKUP(A159,[1]Planilha3!$A:$B,2,0)</f>
+        <v>42996420.579999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45638</v>
       </c>
@@ -4774,8 +7633,12 @@
         <f>PRODUCT(F$2:F160)-1</f>
         <v>6.5533102582688851E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160">
+        <f>VLOOKUP(A160,[1]Planilha3!$A:$B,2,0)</f>
+        <v>42758149.409999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45639</v>
       </c>
@@ -4801,8 +7664,12 @@
         <f>PRODUCT(F$2:F161)-1</f>
         <v>6.6018058663667389E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161">
+        <f>VLOOKUP(A161,[1]Planilha3!$A:$B,2,0)</f>
+        <v>42505894.799999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45642</v>
       </c>
@@ -4828,8 +7695,12 @@
         <f>PRODUCT(F$2:F162)-1</f>
         <v>6.6503235462706867E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162">
+        <f>VLOOKUP(A162,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41802500.350000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45643</v>
       </c>
@@ -4855,8 +7726,12 @@
         <f>PRODUCT(F$2:F163)-1</f>
         <v>6.6988633080262927E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163">
+        <f>VLOOKUP(A163,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41577824.340000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45644</v>
       </c>
@@ -4882,8 +7757,12 @@
         <f>PRODUCT(F$2:F164)-1</f>
         <v>6.7474251616836733E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164">
+        <f>VLOOKUP(A164,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41362551.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45645</v>
       </c>
@@ -4909,8 +7788,12 @@
         <f>PRODUCT(F$2:F165)-1</f>
         <v>6.7960091172974968E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165">
+        <f>VLOOKUP(A165,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41432287.07</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45646</v>
       </c>
@@ -4936,8 +7819,12 @@
         <f>PRODUCT(F$2:F166)-1</f>
         <v>6.8446151849270498E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166">
+        <f>VLOOKUP(A166,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41489549.520000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45649</v>
       </c>
@@ -4963,8 +7850,12 @@
         <f>PRODUCT(F$2:F167)-1</f>
         <v>6.893243374636171E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167">
+        <f>VLOOKUP(A167,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41428203.450000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45650</v>
       </c>
@@ -4990,8 +7881,12 @@
         <f>PRODUCT(F$2:F168)-1</f>
         <v>6.9418936964932731E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168">
+        <f>VLOOKUP(A168,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41469496.369999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45652</v>
       </c>
@@ -5017,8 +7912,12 @@
         <f>PRODUCT(F$2:F169)-1</f>
         <v>6.9905661605713654E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169">
+        <f>VLOOKUP(A169,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41417725.649999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45653</v>
       </c>
@@ -5044,8 +7943,12 @@
         <f>PRODUCT(F$2:F170)-1</f>
         <v>7.0392607769480309E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170">
+        <f>VLOOKUP(A170,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41301111.460000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45656</v>
       </c>
@@ -5071,8 +7974,12 @@
         <f>PRODUCT(F$2:F171)-1</f>
         <v>7.0879775557054492E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171">
+        <f>VLOOKUP(A171,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41197536.740000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45657</v>
       </c>
@@ -5098,8 +8005,12 @@
         <f>PRODUCT(F$2:F172)-1</f>
         <v>7.136716506930374E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172">
+        <f>VLOOKUP(A172,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41233531.280000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45659</v>
       </c>
@@ -5125,8 +8036,12 @@
         <f>PRODUCT(F$2:F173)-1</f>
         <v>7.1854776407141774E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H173">
+        <f>VLOOKUP(A173,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41344049.32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45660</v>
       </c>
@@ -5152,8 +8067,12 @@
         <f>PRODUCT(F$2:F174)-1</f>
         <v>7.2342609671527836E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174">
+        <f>VLOOKUP(A174,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41368054.600000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45663</v>
       </c>
@@ -5179,8 +8098,12 @@
         <f>PRODUCT(F$2:F175)-1</f>
         <v>7.2830664963467573E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175">
+        <f>VLOOKUP(A175,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41387432.829999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45664</v>
       </c>
@@ -5206,8 +8129,12 @@
         <f>PRODUCT(F$2:F176)-1</f>
         <v>7.3318942384012376E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176">
+        <f>VLOOKUP(A176,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41034062</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45665</v>
       </c>
@@ -5233,8 +8160,12 @@
         <f>PRODUCT(F$2:F177)-1</f>
         <v>7.3807442034259596E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177">
+        <f>VLOOKUP(A177,[1]Planilha3!$A:$B,2,0)</f>
+        <v>41073417.32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45666</v>
       </c>
@@ -5260,8 +8191,12 @@
         <f>PRODUCT(F$2:F178)-1</f>
         <v>7.429616401535255E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178">
+        <f>VLOOKUP(A178,[1]Planilha3!$A:$B,2,0)</f>
+        <v>40920410.060000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45667</v>
       </c>
@@ -5287,8 +8222,12 @@
         <f>PRODUCT(F$2:F179)-1</f>
         <v>7.478510842848074E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179">
+        <f>VLOOKUP(A179,[1]Planilha3!$A:$B,2,0)</f>
+        <v>40860129.859999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45670</v>
       </c>
@@ -5314,8 +8253,12 @@
         <f>PRODUCT(F$2:F180)-1</f>
         <v>7.5274275374879851E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180">
+        <f>VLOOKUP(A180,[1]Planilha3!$A:$B,2,0)</f>
+        <v>40706147.939999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45671</v>
       </c>
@@ -5341,8 +8284,12 @@
         <f>PRODUCT(F$2:F181)-1</f>
         <v>7.5763664955831089E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181">
+        <f>VLOOKUP(A181,[1]Planilha3!$A:$B,2,0)</f>
+        <v>40347536.32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45672</v>
       </c>
@@ -5368,8 +8315,12 @@
         <f>PRODUCT(F$2:F182)-1</f>
         <v>7.6253277272662512E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H182">
+        <f>VLOOKUP(A182,[1]Planilha3!$A:$B,2,0)</f>
+        <v>40393103.009999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45673</v>
       </c>
@@ -5395,8 +8346,12 @@
         <f>PRODUCT(F$2:F183)-1</f>
         <v>7.6743112426747695E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183">
+        <f>VLOOKUP(A183,[1]Planilha3!$A:$B,2,0)</f>
+        <v>40224311.07</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45674</v>
       </c>
@@ -5422,8 +8377,12 @@
         <f>PRODUCT(F$2:F184)-1</f>
         <v>7.72331705195064E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184">
+        <f>VLOOKUP(A184,[1]Planilha3!$A:$B,2,0)</f>
+        <v>40123171.189999998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45677</v>
       </c>
@@ -5449,8 +8408,12 @@
         <f>PRODUCT(F$2:F185)-1</f>
         <v>7.7723451652405018E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185">
+        <f>VLOOKUP(A185,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39901347.759999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45678</v>
       </c>
@@ -5476,8 +8439,12 @@
         <f>PRODUCT(F$2:F186)-1</f>
         <v>7.8213955926955459E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186">
+        <f>VLOOKUP(A186,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39725422.810000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45679</v>
       </c>
@@ -5503,8 +8470,12 @@
         <f>PRODUCT(F$2:F187)-1</f>
         <v>7.8704683444716483E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187">
+        <f>VLOOKUP(A187,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39634662.640000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>45680</v>
       </c>
@@ -5530,8 +8501,12 @@
         <f>PRODUCT(F$2:F188)-1</f>
         <v>7.9195634307292595E-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188">
+        <f>VLOOKUP(A188,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39642551.93</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>45681</v>
       </c>
@@ -5557,8 +8532,12 @@
         <f>PRODUCT(F$2:F189)-1</f>
         <v>7.9686808616334925E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189">
+        <f>VLOOKUP(A189,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39514133.770000003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>45684</v>
       </c>
@@ -5584,8 +8563,12 @@
         <f>PRODUCT(F$2:F190)-1</f>
         <v>8.0178206473540348E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190">
+        <f>VLOOKUP(A190,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39364951.670000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>45685</v>
       </c>
@@ -5611,8 +8594,12 @@
         <f>PRODUCT(F$2:F191)-1</f>
         <v>8.0669827980652586E-2</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191">
+        <f>VLOOKUP(A191,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39580221.960000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>45686</v>
       </c>
@@ -5638,8 +8625,12 @@
         <f>PRODUCT(F$2:F192)-1</f>
         <v>8.1161673239461329E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192">
+        <f>VLOOKUP(A192,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39569298.490000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>45687</v>
       </c>
@@ -5665,8 +8656,12 @@
         <f>PRODUCT(F$2:F193)-1</f>
         <v>8.1691842489167943E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193">
+        <f>VLOOKUP(A193,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39755121.520000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>45688</v>
       </c>
@@ -5692,8 +8687,12 @@
         <f>PRODUCT(F$2:F194)-1</f>
         <v>8.2222271717969475E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194">
+        <f>VLOOKUP(A194,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39716788.789999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45691</v>
       </c>
@@ -5719,8 +8718,12 @@
         <f>PRODUCT(F$2:F195)-1</f>
         <v>8.2752961053351948E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195">
+        <f>VLOOKUP(A195,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39678132.689999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>45692</v>
       </c>
@@ -5746,8 +8749,12 @@
         <f>PRODUCT(F$2:F196)-1</f>
         <v>8.3283910622863777E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196">
+        <f>VLOOKUP(A196,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39613514.140000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45693</v>
       </c>
@@ -5773,8 +8780,12 @@
         <f>PRODUCT(F$2:F197)-1</f>
         <v>8.3815120554115996E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197">
+        <f>VLOOKUP(A197,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39637411.68</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>45694</v>
       </c>
@@ -5800,8 +8811,12 @@
         <f>PRODUCT(F$2:F198)-1</f>
         <v>8.4346590974782254E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198">
+        <f>VLOOKUP(A198,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39629647.280000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>45695</v>
       </c>
@@ -5827,8 +8842,12 @@
         <f>PRODUCT(F$2:F199)-1</f>
         <v>8.4878322012598595E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199">
+        <f>VLOOKUP(A199,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39575786.850000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>45698</v>
       </c>
@@ -5854,8 +8873,12 @@
         <f>PRODUCT(F$2:F200)-1</f>
         <v>8.5410313795363901E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200">
+        <f>VLOOKUP(A200,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39574965.590000004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>45699</v>
       </c>
@@ -5881,8 +8904,12 @@
         <f>PRODUCT(F$2:F201)-1</f>
         <v>8.5942566450939895E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H201">
+        <f>VLOOKUP(A201,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39404187.899999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>45700</v>
       </c>
@@ -5908,8 +8935,12 @@
         <f>PRODUCT(F$2:F202)-1</f>
         <v>8.6475080107250468E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H202">
+        <f>VLOOKUP(A202,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39468056.140000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>45701</v>
       </c>
@@ -5935,8 +8966,12 @@
         <f>PRODUCT(F$2:F203)-1</f>
         <v>8.7007854892282799E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H203">
+        <f>VLOOKUP(A203,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39482775.43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45702</v>
       </c>
@@ -5962,8 +8997,12 @@
         <f>PRODUCT(F$2:F204)-1</f>
         <v>8.7540890934086457E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H204">
+        <f>VLOOKUP(A204,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39565282.880000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45705</v>
       </c>
@@ -5989,8 +9028,12 @@
         <f>PRODUCT(F$2:F205)-1</f>
         <v>8.8074188360773853E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H205">
+        <f>VLOOKUP(A205,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39594228.850000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45706</v>
       </c>
@@ -6016,8 +9059,12 @@
         <f>PRODUCT(F$2:F206)-1</f>
         <v>8.8607747300520456E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H206">
+        <f>VLOOKUP(A206,[1]Planilha3!$A:$B,2,0)</f>
+        <v>39183418.420000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45707</v>
       </c>
@@ -6043,8 +9090,12 @@
         <f>PRODUCT(F$2:F207)-1</f>
         <v>8.9141567881564354E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H207">
+        <f>VLOOKUP(A207,[1]Planilha3!$A:$B,2,0)</f>
+        <v>38923791.299999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45708</v>
       </c>
@@ -6070,8 +9121,12 @@
         <f>PRODUCT(F$2:F208)-1</f>
         <v>8.9675650232206472E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H208">
+        <f>VLOOKUP(A208,[1]Planilha3!$A:$B,2,0)</f>
+        <v>38734645.659999996</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45709</v>
       </c>
@@ -6097,8 +9152,12 @@
         <f>PRODUCT(F$2:F209)-1</f>
         <v>9.0209994480811018E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H209">
+        <f>VLOOKUP(A209,[1]Planilha3!$A:$B,2,0)</f>
+        <v>38653555.600000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45712</v>
       </c>
@@ -6124,8 +9183,12 @@
         <f>PRODUCT(F$2:F210)-1</f>
         <v>9.0744600755804594E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H210">
+        <f>VLOOKUP(A210,[1]Planilha3!$A:$B,2,0)</f>
+        <v>38503718.259999998</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45713</v>
       </c>
@@ -6151,8 +9214,12 @@
         <f>PRODUCT(F$2:F211)-1</f>
         <v>9.1279469185677309E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H211">
+        <f>VLOOKUP(A211,[1]Planilha3!$A:$B,2,0)</f>
+        <v>38516485.149999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>45714</v>
       </c>
@@ -6178,8 +9245,12 @@
         <f>PRODUCT(F$2:F212)-1</f>
         <v>9.1814599898981886E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H212">
+        <f>VLOOKUP(A212,[1]Planilha3!$A:$B,2,0)</f>
+        <v>38422758.93</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45715</v>
       </c>
@@ -6205,8 +9276,12 @@
         <f>PRODUCT(F$2:F213)-1</f>
         <v>9.2349993024334331E-2</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H213">
+        <f>VLOOKUP(A213,[1]Planilha3!$A:$B,2,0)</f>
+        <v>37960559.600000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>45716</v>
       </c>
@@ -6232,8 +9307,12 @@
         <f>PRODUCT(F$2:F214)-1</f>
         <v>9.2885648690413714E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H214">
+        <f>VLOOKUP(A214,[1]Planilha3!$A:$B,2,0)</f>
+        <v>37895044.090000004</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>45721</v>
       </c>
@@ -6259,8 +9338,12 @@
         <f>PRODUCT(F$2:F215)-1</f>
         <v>9.342156702596216E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H215">
+        <f>VLOOKUP(A215,[1]Planilha3!$A:$B,2,0)</f>
+        <v>37067753.560000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>45722</v>
       </c>
@@ -6286,8 +9369,12 @@
         <f>PRODUCT(F$2:F216)-1</f>
         <v>9.395774815978486E-2</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H216">
+        <f>VLOOKUP(A216,[1]Planilha3!$A:$B,2,0)</f>
+        <v>36919151.759999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45723</v>
       </c>
@@ -6313,8 +9400,12 @@
         <f>PRODUCT(F$2:F217)-1</f>
         <v>9.4494192220750062E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H217">
+        <f>VLOOKUP(A217,[1]Planilha3!$A:$B,2,0)</f>
+        <v>36810860.490000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>45726</v>
       </c>
@@ -6340,8 +9431,12 @@
         <f>PRODUCT(F$2:F218)-1</f>
         <v>9.5030899337789521E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H218">
+        <f>VLOOKUP(A218,[1]Planilha3!$A:$B,2,0)</f>
+        <v>36428405.759999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>45727</v>
       </c>
@@ -6367,8 +9462,12 @@
         <f>PRODUCT(F$2:F219)-1</f>
         <v>9.5567869639897829E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H219">
+        <f>VLOOKUP(A219,[1]Planilha3!$A:$B,2,0)</f>
+        <v>36301123.93</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>45728</v>
       </c>
@@ -6394,8 +9493,12 @@
         <f>PRODUCT(F$2:F220)-1</f>
         <v>9.6105103256133306E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H220">
+        <f>VLOOKUP(A220,[1]Planilha3!$A:$B,2,0)</f>
+        <v>36084737.039999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>45729</v>
       </c>
@@ -6421,8 +9524,12 @@
         <f>PRODUCT(F$2:F221)-1</f>
         <v>9.6642600315617111E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H221">
+        <f>VLOOKUP(A221,[1]Planilha3!$A:$B,2,0)</f>
+        <v>35983753.020000003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>45730</v>
       </c>
@@ -6448,8 +9555,12 @@
         <f>PRODUCT(F$2:F222)-1</f>
         <v>9.7180360947533906E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H222">
+        <f>VLOOKUP(A222,[1]Planilha3!$A:$B,2,0)</f>
+        <v>35860872.619999997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>45733</v>
       </c>
@@ -6475,8 +9586,12 @@
         <f>PRODUCT(F$2:F223)-1</f>
         <v>9.7718385281131859E-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H223">
+        <f>VLOOKUP(A223,[1]Planilha3!$A:$B,2,0)</f>
+        <v>35585055.770000003</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>45734</v>
       </c>
@@ -6502,8 +9617,12 @@
         <f>PRODUCT(F$2:F224)-1</f>
         <v>9.8256673445722198E-2</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H224">
+        <f>VLOOKUP(A224,[1]Planilha3!$A:$B,2,0)</f>
+        <v>35628441.170000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>45735</v>
       </c>
@@ -6529,8 +9648,12 @@
         <f>PRODUCT(F$2:F225)-1</f>
         <v>9.8795225570679879E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H225">
+        <f>VLOOKUP(A225,[1]Planilha3!$A:$B,2,0)</f>
+        <v>35372300.490000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>45736</v>
       </c>
@@ -6556,8 +9679,12 @@
         <f>PRODUCT(F$2:F226)-1</f>
         <v>9.9372433690624318E-2</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H226">
+        <f>VLOOKUP(A226,[1]Planilha3!$A:$B,2,0)</f>
+        <v>34755017.990000002</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>45737</v>
       </c>
@@ -6583,8 +9710,12 @@
         <f>PRODUCT(F$2:F227)-1</f>
         <v>9.9949945023766418E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H227">
+        <f>VLOOKUP(A227,[1]Planilha3!$A:$B,2,0)</f>
+        <v>34503068.880000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>45740</v>
       </c>
@@ -6610,8 +9741,12 @@
         <f>PRODUCT(F$2:F228)-1</f>
         <v>0.10052775972938677</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H228">
+        <f>VLOOKUP(A228,[1]Planilha3!$A:$B,2,0)</f>
+        <v>34362623.509999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>45741</v>
       </c>
@@ -6637,8 +9772,12 @@
         <f>PRODUCT(F$2:F229)-1</f>
         <v>0.10110587796685011</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H229">
+        <f>VLOOKUP(A229,[1]Planilha3!$A:$B,2,0)</f>
+        <v>34135541.520000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>45742</v>
       </c>
@@ -6664,8 +9803,12 @@
         <f>PRODUCT(F$2:F230)-1</f>
         <v>0.1016842998956049</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H230">
+        <f>VLOOKUP(A230,[1]Planilha3!$A:$B,2,0)</f>
+        <v>34045611.039999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>45743</v>
       </c>
@@ -6691,8 +9834,12 @@
         <f>PRODUCT(F$2:F231)-1</f>
         <v>0.10226302567518308</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H231">
+        <f>VLOOKUP(A231,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33917845.630000003</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>45744</v>
       </c>
@@ -6718,8 +9865,12 @@
         <f>PRODUCT(F$2:F232)-1</f>
         <v>0.10284205546520053</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H232">
+        <f>VLOOKUP(A232,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33908950.359999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>45747</v>
       </c>
@@ -6745,8 +9896,12 @@
         <f>PRODUCT(F$2:F233)-1</f>
         <v>0.10342138942535706</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H233">
+        <f>VLOOKUP(A233,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33846317.960000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>45748</v>
       </c>
@@ -6772,8 +9927,12 @@
         <f>PRODUCT(F$2:F234)-1</f>
         <v>0.10400102771543618</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H234">
+        <f>VLOOKUP(A234,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33764049.719999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>45749</v>
       </c>
@@ -6799,8 +9958,12 @@
         <f>PRODUCT(F$2:F235)-1</f>
         <v>0.10458097049530535</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H235">
+        <f>VLOOKUP(A235,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33451910.41</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>45750</v>
       </c>
@@ -6826,8 +9989,12 @@
         <f>PRODUCT(F$2:F236)-1</f>
         <v>0.10516121792491617</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H236">
+        <f>VLOOKUP(A236,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33470226.760000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>45751</v>
       </c>
@@ -6853,8 +10020,12 @@
         <f>PRODUCT(F$2:F237)-1</f>
         <v>0.10574177016430442</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H237">
+        <f>VLOOKUP(A237,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33423741.260000002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>45754</v>
       </c>
@@ -6880,8 +10051,12 @@
         <f>PRODUCT(F$2:F238)-1</f>
         <v>0.10632262737358933</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H238">
+        <f>VLOOKUP(A238,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33472242</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>45755</v>
       </c>
@@ -6907,8 +10082,12 @@
         <f>PRODUCT(F$2:F239)-1</f>
         <v>0.10690378971297498</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H239">
+        <f>VLOOKUP(A239,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33483088.23</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>45756</v>
       </c>
@@ -6934,8 +10113,12 @@
         <f>PRODUCT(F$2:F240)-1</f>
         <v>0.10748525734274916</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H240">
+        <f>VLOOKUP(A240,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33439829.850000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>45757</v>
       </c>
@@ -6961,8 +10144,12 @@
         <f>PRODUCT(F$2:F241)-1</f>
         <v>0.10806703042328381</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H241">
+        <f>VLOOKUP(A241,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33337805.329999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>45758</v>
       </c>
@@ -6988,8 +10175,12 @@
         <f>PRODUCT(F$2:F242)-1</f>
         <v>0.10864910911503545</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H242">
+        <f>VLOOKUP(A242,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33450271.449999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>45761</v>
       </c>
@@ -7015,8 +10206,12 @@
         <f>PRODUCT(F$2:F243)-1</f>
         <v>0.10923149357854456</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H243">
+        <f>VLOOKUP(A243,[1]Planilha3!$A:$B,2,0)</f>
+        <v>33161847.890000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>45762</v>
       </c>
@@ -7042,8 +10237,12 @@
         <f>PRODUCT(F$2:F244)-1</f>
         <v>0.10981418397443621</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H244">
+        <f>VLOOKUP(A244,[1]Planilha3!$A:$B,2,0)</f>
+        <v>32939209.510000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>45763</v>
       </c>
@@ -7069,8 +10268,12 @@
         <f>PRODUCT(F$2:F245)-1</f>
         <v>0.11039718046341984</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H245">
+        <f>VLOOKUP(A245,[1]Planilha3!$A:$B,2,0)</f>
+        <v>32439366.219999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>45764</v>
       </c>
@@ -7096,8 +10299,12 @@
         <f>PRODUCT(F$2:F246)-1</f>
         <v>0.11098048320628906</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H246">
+        <f>VLOOKUP(A246,[1]Planilha3!$A:$B,2,0)</f>
+        <v>31937952.210000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>45769</v>
       </c>
@@ -7123,8 +10330,12 @@
         <f>PRODUCT(F$2:F247)-1</f>
         <v>0.11156409236392206</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H247">
+        <f>VLOOKUP(A247,[1]Planilha3!$A:$B,2,0)</f>
+        <v>30708769.170000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>45770</v>
       </c>
@@ -7150,8 +10361,12 @@
         <f>PRODUCT(F$2:F248)-1</f>
         <v>0.11214800809728165</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H248">
+        <f>VLOOKUP(A248,[1]Planilha3!$A:$B,2,0)</f>
+        <v>30570507.960000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>45771</v>
       </c>
@@ -7177,8 +10392,12 @@
         <f>PRODUCT(F$2:F249)-1</f>
         <v>0.11273223056741521</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H249">
+        <f>VLOOKUP(A249,[1]Planilha3!$A:$B,2,0)</f>
+        <v>30473150.559999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>45772</v>
       </c>
@@ -7204,8 +10423,12 @@
         <f>PRODUCT(F$2:F250)-1</f>
         <v>0.11331675993545454</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H250">
+        <f>VLOOKUP(A250,[1]Planilha3!$A:$B,2,0)</f>
+        <v>30297058.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>45775</v>
       </c>
@@ -7231,8 +10454,12 @@
         <f>PRODUCT(F$2:F251)-1</f>
         <v>0.11390159636261621</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H251">
+        <f>VLOOKUP(A251,[1]Planilha3!$A:$B,2,0)</f>
+        <v>30263808.960000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>45776</v>
       </c>
@@ -7258,8 +10485,12 @@
         <f>PRODUCT(F$2:F252)-1</f>
         <v>0.11448674001020143</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H252">
+        <f>VLOOKUP(A252,[1]Planilha3!$A:$B,2,0)</f>
+        <v>29883376.440000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>45777</v>
       </c>
@@ -7285,8 +10516,12 @@
         <f>PRODUCT(F$2:F253)-1</f>
         <v>0.11507219103959621</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H253">
+        <f>VLOOKUP(A253,[1]Planilha3!$A:$B,2,0)</f>
+        <v>29834775.640000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>45779</v>
       </c>
@@ -7312,8 +10547,12 @@
         <f>PRODUCT(F$2:F254)-1</f>
         <v>0.11565794961227116</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H254">
+        <f>VLOOKUP(A254,[1]Planilha3!$A:$B,2,0)</f>
+        <v>29696974.010000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>45782</v>
       </c>
@@ -7339,8 +10578,12 @@
         <f>PRODUCT(F$2:F255)-1</f>
         <v>0.11624401588978195</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H255">
+        <f>VLOOKUP(A255,[1]Planilha3!$A:$B,2,0)</f>
+        <v>29473054.219999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>45783</v>
       </c>
@@ -7366,8 +10609,12 @@
         <f>PRODUCT(F$2:F256)-1</f>
         <v>0.11683039003376905</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H256">
+        <f>VLOOKUP(A256,[1]Planilha3!$A:$B,2,0)</f>
+        <v>29502452.66</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>45784</v>
       </c>
@@ -7393,8 +10640,12 @@
         <f>PRODUCT(F$2:F257)-1</f>
         <v>0.11741707220595776</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H257">
+        <f>VLOOKUP(A257,[1]Planilha3!$A:$B,2,0)</f>
+        <v>29368106.75</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>45785</v>
       </c>
@@ -7420,8 +10671,12 @@
         <f>PRODUCT(F$2:F258)-1</f>
         <v>0.11802344975436108</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H258">
+        <f>VLOOKUP(A258,[1]Planilha3!$A:$B,2,0)</f>
+        <v>29288671.359999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>45786</v>
       </c>
@@ -7447,8 +10702,12 @@
         <f>PRODUCT(F$2:F259)-1</f>
         <v>0.11863015635960483</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H259">
+        <f>VLOOKUP(A259,[1]Planilha3!$A:$B,2,0)</f>
+        <v>29002710.129999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>45789</v>
       </c>
@@ -7474,8 +10733,12 @@
         <f>PRODUCT(F$2:F260)-1</f>
         <v>0.11923719220025486</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H260">
+        <f>VLOOKUP(A260,[1]Planilha3!$A:$B,2,0)</f>
+        <v>28974407.640000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>45790</v>
       </c>
@@ -7501,8 +10764,12 @@
         <f>PRODUCT(F$2:F261)-1</f>
         <v>0.11984455745497424</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H261">
+        <f>VLOOKUP(A261,[1]Planilha3!$A:$B,2,0)</f>
+        <v>29013253.34</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>45791</v>
       </c>
@@ -7528,8 +10795,12 @@
         <f>PRODUCT(F$2:F262)-1</f>
         <v>0.12045225230252288</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H262">
+        <f>VLOOKUP(A262,[1]Planilha3!$A:$B,2,0)</f>
+        <v>28874143.539999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>45792</v>
       </c>
@@ -7555,8 +10826,12 @@
         <f>PRODUCT(F$2:F263)-1</f>
         <v>0.12106027692175747</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H263">
+        <f>VLOOKUP(A263,[1]Planilha3!$A:$B,2,0)</f>
+        <v>28743347.440000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>45793</v>
       </c>
@@ -7582,8 +10857,12 @@
         <f>PRODUCT(F$2:F264)-1</f>
         <v>0.12166863149163176</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H264">
+        <f>VLOOKUP(A264,[1]Planilha3!$A:$B,2,0)</f>
+        <v>28758557.260000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>45796</v>
       </c>
@@ -7609,8 +10888,12 @@
         <f>PRODUCT(F$2:F265)-1</f>
         <v>0.12227731619119697</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H265">
+        <f>VLOOKUP(A265,[1]Planilha3!$A:$B,2,0)</f>
+        <v>28769652.969999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>45797</v>
       </c>
@@ -7636,8 +10919,12 @@
         <f>PRODUCT(F$2:F266)-1</f>
         <v>0.12288633119960135</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H266">
+        <f>VLOOKUP(A266,[1]Planilha3!$A:$B,2,0)</f>
+        <v>28438626.219999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>45798</v>
       </c>
@@ -7663,8 +10950,12 @@
         <f>PRODUCT(F$2:F267)-1</f>
         <v>0.12349567669609018</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H267">
+        <f>VLOOKUP(A267,[1]Planilha3!$A:$B,2,0)</f>
+        <v>28307424.379999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>45799</v>
       </c>
@@ -7690,9 +10981,13 @@
         <f>PRODUCT(F$2:F268)-1</f>
         <v>0.12410535286000601</v>
       </c>
+      <c r="H268">
+        <f>VLOOKUP(A268,[1]Planilha3!$A:$B,2,0)</f>
+        <v>28054351.32</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{06DB13AA-8D9A-40F6-BD03-E8FAB1FF6A5A}"/>
+  <autoFilter ref="A1:H1" xr:uid="{06DB13AA-8D9A-40F6-BD03-E8FAB1FF6A5A}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/reta_aloc_files/cota-aloc.xlsx
+++ b/reta_aloc_files/cota-aloc.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcste\OneDrive\Desktop\Desktop\My R Packages\lamina\lamina\reta_aloc_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82f3955c2e385cb8/Desktop/Desktop/My R Packages/lamina/lamina/reta_aloc_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101FB2CE-BE0E-47C3-9101-8ACA88EC3F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{101FB2CE-BE0E-47C3-9101-8ACA88EC3F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77989889-C638-4655-A450-B51E441FB3FA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC2D0A65-1742-4752-B7E6-A8D9C8AAD11F}"/>
   </bookViews>
   <sheets>
     <sheet name="reta aloc" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'reta aloc'!$A$1:$H$1</definedName>
   </definedNames>
@@ -74,7 +71,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.00000%"/>
+    <numFmt numFmtId="164" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,2217 +133,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet"/>
-      <sheetName val="Planilha3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Data</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Patrimonio</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>45412</v>
-          </cell>
-          <cell r="B2">
-            <v>11762552.73</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>45414</v>
-          </cell>
-          <cell r="B3">
-            <v>11766953.800000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>45415</v>
-          </cell>
-          <cell r="B4">
-            <v>13224959.300000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>45418</v>
-          </cell>
-          <cell r="B5">
-            <v>18695150.329999998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>45419</v>
-          </cell>
-          <cell r="B6">
-            <v>19118110.329999998</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>45420</v>
-          </cell>
-          <cell r="B7">
-            <v>19828276.68</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>45421</v>
-          </cell>
-          <cell r="B8">
-            <v>20432466.260000002</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>45422</v>
-          </cell>
-          <cell r="B9">
-            <v>22008258.02</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>45425</v>
-          </cell>
-          <cell r="B10">
-            <v>22689331.27</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>45426</v>
-          </cell>
-          <cell r="B11">
-            <v>23514543.989999998</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>45427</v>
-          </cell>
-          <cell r="B12">
-            <v>25239143.449999999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>45428</v>
-          </cell>
-          <cell r="B13">
-            <v>28518610.949999999</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>45429</v>
-          </cell>
-          <cell r="B14">
-            <v>29833856.030000001</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>45432</v>
-          </cell>
-          <cell r="B15">
-            <v>30735489.920000002</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>45433</v>
-          </cell>
-          <cell r="B16">
-            <v>31349214.84</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>45434</v>
-          </cell>
-          <cell r="B17">
-            <v>32119715.100000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>45435</v>
-          </cell>
-          <cell r="B18">
-            <v>32892998.539999999</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>45436</v>
-          </cell>
-          <cell r="B19">
-            <v>33449571.57</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>45439</v>
-          </cell>
-          <cell r="B20">
-            <v>34359506.649999999</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>45440</v>
-          </cell>
-          <cell r="B21">
-            <v>35855758.409999996</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>45441</v>
-          </cell>
-          <cell r="B22">
-            <v>38422682.119999997</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>45443</v>
-          </cell>
-          <cell r="B23">
-            <v>40303057.219999999</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>45446</v>
-          </cell>
-          <cell r="B24">
-            <v>41613660.890000001</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>45447</v>
-          </cell>
-          <cell r="B25">
-            <v>42882387.770000003</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>45448</v>
-          </cell>
-          <cell r="B26">
-            <v>43017252.219999999</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>45449</v>
-          </cell>
-          <cell r="B27">
-            <v>43096192.409999996</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>45450</v>
-          </cell>
-          <cell r="B28">
-            <v>43057727.920000002</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>45453</v>
-          </cell>
-          <cell r="B29">
-            <v>43077427.950000003</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>45454</v>
-          </cell>
-          <cell r="B30">
-            <v>43107494.780000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>45455</v>
-          </cell>
-          <cell r="B31">
-            <v>43125927.380000003</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>45456</v>
-          </cell>
-          <cell r="B32">
-            <v>43195881.609999999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>45457</v>
-          </cell>
-          <cell r="B33">
-            <v>43342513.899999999</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>45460</v>
-          </cell>
-          <cell r="B34">
-            <v>43405843.57</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>45461</v>
-          </cell>
-          <cell r="B35">
-            <v>43535247.770000003</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>45462</v>
-          </cell>
-          <cell r="B36">
-            <v>43673230.799999997</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>45463</v>
-          </cell>
-          <cell r="B37">
-            <v>43697818.020000003</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>45464</v>
-          </cell>
-          <cell r="B38">
-            <v>43875421.700000003</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>45467</v>
-          </cell>
-          <cell r="B39">
-            <v>43954230.359999999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>45468</v>
-          </cell>
-          <cell r="B40">
-            <v>43967797.509999998</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>45469</v>
-          </cell>
-          <cell r="B41">
-            <v>43974456.899999999</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>45470</v>
-          </cell>
-          <cell r="B42">
-            <v>44093224.289999999</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>45471</v>
-          </cell>
-          <cell r="B43">
-            <v>44058221.229999997</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>45474</v>
-          </cell>
-          <cell r="B44">
-            <v>44022959.43</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>45475</v>
-          </cell>
-          <cell r="B45">
-            <v>44110929.030000001</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>45476</v>
-          </cell>
-          <cell r="B46">
-            <v>44251733.670000002</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>45477</v>
-          </cell>
-          <cell r="B47">
-            <v>44369978.329999998</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>45478</v>
-          </cell>
-          <cell r="B48">
-            <v>44452542.030000001</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>45481</v>
-          </cell>
-          <cell r="B49">
-            <v>44440080.710000001</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>45482</v>
-          </cell>
-          <cell r="B50">
-            <v>44510576.340000004</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>45483</v>
-          </cell>
-          <cell r="B51">
-            <v>44644116</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>45484</v>
-          </cell>
-          <cell r="B52">
-            <v>44736339.57</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>45485</v>
-          </cell>
-          <cell r="B53">
-            <v>44791164.789999999</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>45488</v>
-          </cell>
-          <cell r="B54">
-            <v>44815349.880000003</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>45489</v>
-          </cell>
-          <cell r="B55">
-            <v>44835169.57</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>45490</v>
-          </cell>
-          <cell r="B56">
-            <v>44840790.530000001</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>45491</v>
-          </cell>
-          <cell r="B57">
-            <v>44710922.390000001</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>45492</v>
-          </cell>
-          <cell r="B58">
-            <v>44760033.469999999</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>45495</v>
-          </cell>
-          <cell r="B59">
-            <v>44824487.07</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>45496</v>
-          </cell>
-          <cell r="B60">
-            <v>44827867.439999998</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>45497</v>
-          </cell>
-          <cell r="B61">
-            <v>44823438.899999999</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>45498</v>
-          </cell>
-          <cell r="B62">
-            <v>44864851.469999999</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>45499</v>
-          </cell>
-          <cell r="B63">
-            <v>45034738.18</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>45502</v>
-          </cell>
-          <cell r="B64">
-            <v>45045461.850000001</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>45503</v>
-          </cell>
-          <cell r="B65">
-            <v>45111230.43</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>45504</v>
-          </cell>
-          <cell r="B66">
-            <v>45230176.450000003</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>45505</v>
-          </cell>
-          <cell r="B67">
-            <v>45316146.100000001</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>45506</v>
-          </cell>
-          <cell r="B68">
-            <v>45231329.130000003</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>45509</v>
-          </cell>
-          <cell r="B69">
-            <v>45241450.380000003</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>45510</v>
-          </cell>
-          <cell r="B70">
-            <v>45205264.280000001</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>45511</v>
-          </cell>
-          <cell r="B71">
-            <v>45328089.590000004</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>45512</v>
-          </cell>
-          <cell r="B72">
-            <v>45527835.859999999</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>45513</v>
-          </cell>
-          <cell r="B73">
-            <v>46193370.649999999</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>45516</v>
-          </cell>
-          <cell r="B74">
-            <v>46315335.090000004</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>45517</v>
-          </cell>
-          <cell r="B75">
-            <v>46540040.140000001</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>45518</v>
-          </cell>
-          <cell r="B76">
-            <v>46650008.100000001</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>45519</v>
-          </cell>
-          <cell r="B77">
-            <v>46805430.020000003</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>45520</v>
-          </cell>
-          <cell r="B78">
-            <v>46997371.119999997</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>45523</v>
-          </cell>
-          <cell r="B79">
-            <v>47303702.770000003</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>45524</v>
-          </cell>
-          <cell r="B80">
-            <v>47315155.310000002</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>45525</v>
-          </cell>
-          <cell r="B81">
-            <v>47338527.649999999</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>45526</v>
-          </cell>
-          <cell r="B82">
-            <v>47427455.609999999</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>45527</v>
-          </cell>
-          <cell r="B83">
-            <v>47697727.909999996</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>45530</v>
-          </cell>
-          <cell r="B84">
-            <v>47666358.210000001</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>45531</v>
-          </cell>
-          <cell r="B85">
-            <v>47741470.259999998</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>45532</v>
-          </cell>
-          <cell r="B86">
-            <v>47889994.979999997</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>45533</v>
-          </cell>
-          <cell r="B87">
-            <v>47896999.590000004</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>45534</v>
-          </cell>
-          <cell r="B88">
-            <v>47951521.340000004</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>45537</v>
-          </cell>
-          <cell r="B89">
-            <v>47964661.810000002</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>45538</v>
-          </cell>
-          <cell r="B90">
-            <v>47859417.659999996</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>45539</v>
-          </cell>
-          <cell r="B91">
-            <v>47983505.109999999</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>45540</v>
-          </cell>
-          <cell r="B92">
-            <v>47982262.380000003</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>45541</v>
-          </cell>
-          <cell r="B93">
-            <v>47877609.030000001</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>45544</v>
-          </cell>
-          <cell r="B94">
-            <v>47796770.310000002</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>45545</v>
-          </cell>
-          <cell r="B95">
-            <v>47867003.189999998</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>45546</v>
-          </cell>
-          <cell r="B96">
-            <v>47987606.899999999</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>45547</v>
-          </cell>
-          <cell r="B97">
-            <v>45967032.289999999</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>45548</v>
-          </cell>
-          <cell r="B98">
-            <v>46167403.93</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>45551</v>
-          </cell>
-          <cell r="B99">
-            <v>46172796.07</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>45552</v>
-          </cell>
-          <cell r="B100">
-            <v>46167474.32</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>45553</v>
-          </cell>
-          <cell r="B101">
-            <v>46126537.530000001</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>45554</v>
-          </cell>
-          <cell r="B102">
-            <v>46163562.009999998</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>45555</v>
-          </cell>
-          <cell r="B103">
-            <v>46087903.060000002</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>45558</v>
-          </cell>
-          <cell r="B104">
-            <v>46131605.560000002</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>45559</v>
-          </cell>
-          <cell r="B105">
-            <v>46207433.729999997</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>45560</v>
-          </cell>
-          <cell r="B106">
-            <v>46009733.380000003</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>45561</v>
-          </cell>
-          <cell r="B107">
-            <v>46096116.450000003</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>45562</v>
-          </cell>
-          <cell r="B108">
-            <v>46155409.859999999</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>45565</v>
-          </cell>
-          <cell r="B109">
-            <v>46057454.810000002</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>45566</v>
-          </cell>
-          <cell r="B110">
-            <v>46073816.630000003</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>45567</v>
-          </cell>
-          <cell r="B111">
-            <v>46066172.689999998</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>45568</v>
-          </cell>
-          <cell r="B112">
-            <v>46036035.969999999</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>45569</v>
-          </cell>
-          <cell r="B113">
-            <v>46055516.969999999</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>45572</v>
-          </cell>
-          <cell r="B114">
-            <v>45994010.640000001</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>45573</v>
-          </cell>
-          <cell r="B115">
-            <v>46068979.659999996</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>45574</v>
-          </cell>
-          <cell r="B116">
-            <v>46087849.710000001</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>45575</v>
-          </cell>
-          <cell r="B117">
-            <v>46163048.200000003</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>45576</v>
-          </cell>
-          <cell r="B118">
-            <v>46231214.210000001</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>45579</v>
-          </cell>
-          <cell r="B119">
-            <v>46247960.43</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>45580</v>
-          </cell>
-          <cell r="B120">
-            <v>46167954.600000001</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>45581</v>
-          </cell>
-          <cell r="B121">
-            <v>46151727.799999997</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>45582</v>
-          </cell>
-          <cell r="B122">
-            <v>45993104.350000001</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>45583</v>
-          </cell>
-          <cell r="B123">
-            <v>45983756.659999996</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>45586</v>
-          </cell>
-          <cell r="B124">
-            <v>45979708.18</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>45587</v>
-          </cell>
-          <cell r="B125">
-            <v>45969978.57</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>45588</v>
-          </cell>
-          <cell r="B126">
-            <v>45915226.219999999</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>45589</v>
-          </cell>
-          <cell r="B127">
-            <v>46016501.579999998</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>45590</v>
-          </cell>
-          <cell r="B128">
-            <v>45994037.079999998</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>45593</v>
-          </cell>
-          <cell r="B129">
-            <v>46041320.100000001</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>45594</v>
-          </cell>
-          <cell r="B130">
-            <v>45997935.969999999</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>45595</v>
-          </cell>
-          <cell r="B131">
-            <v>46002557.009999998</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>45596</v>
-          </cell>
-          <cell r="B132">
-            <v>45878699.909999996</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>45597</v>
-          </cell>
-          <cell r="B133">
-            <v>45750587.060000002</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>45600</v>
-          </cell>
-          <cell r="B134">
-            <v>45841181.439999998</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>45601</v>
-          </cell>
-          <cell r="B135">
-            <v>45826486</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>45602</v>
-          </cell>
-          <cell r="B136">
-            <v>45888450.640000001</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>45603</v>
-          </cell>
-          <cell r="B137">
-            <v>45679496.32</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>45604</v>
-          </cell>
-          <cell r="B138">
-            <v>45675403.240000002</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>45607</v>
-          </cell>
-          <cell r="B139">
-            <v>45752976.969999999</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>45608</v>
-          </cell>
-          <cell r="B140">
-            <v>45714700.93</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>45609</v>
-          </cell>
-          <cell r="B141">
-            <v>45628165.350000001</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>45610</v>
-          </cell>
-          <cell r="B142">
-            <v>45662567.530000001</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>45614</v>
-          </cell>
-          <cell r="B143">
-            <v>45383621.390000001</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>45615</v>
-          </cell>
-          <cell r="B144">
-            <v>44908084.689999998</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>45617</v>
-          </cell>
-          <cell r="B145">
-            <v>45012277.07</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>45618</v>
-          </cell>
-          <cell r="B146">
-            <v>44319996.259999998</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>45621</v>
-          </cell>
-          <cell r="B147">
-            <v>44378196.32</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>45622</v>
-          </cell>
-          <cell r="B148">
-            <v>44378296.68</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>45623</v>
-          </cell>
-          <cell r="B149">
-            <v>43841110.990000002</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>45624</v>
-          </cell>
-          <cell r="B150">
-            <v>43487158.409999996</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>45625</v>
-          </cell>
-          <cell r="B151">
-            <v>43474490.68</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>45628</v>
-          </cell>
-          <cell r="B152">
-            <v>43592152.770000003</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>45629</v>
-          </cell>
-          <cell r="B153">
-            <v>43529147.200000003</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>45630</v>
-          </cell>
-          <cell r="B154">
-            <v>43635302.469999999</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>45631</v>
-          </cell>
-          <cell r="B155">
-            <v>43424347.450000003</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>45632</v>
-          </cell>
-          <cell r="B156">
-            <v>43380074.719999999</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>45635</v>
-          </cell>
-          <cell r="B157">
-            <v>43144368.829999998</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>45636</v>
-          </cell>
-          <cell r="B158">
-            <v>42945279.039999999</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>45637</v>
-          </cell>
-          <cell r="B159">
-            <v>42996420.579999998</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>45638</v>
-          </cell>
-          <cell r="B160">
-            <v>42758149.409999996</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>45639</v>
-          </cell>
-          <cell r="B161">
-            <v>42505894.799999997</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>45642</v>
-          </cell>
-          <cell r="B162">
-            <v>41802500.350000001</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>45643</v>
-          </cell>
-          <cell r="B163">
-            <v>41577824.340000004</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>45644</v>
-          </cell>
-          <cell r="B164">
-            <v>41362551.5</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>45645</v>
-          </cell>
-          <cell r="B165">
-            <v>41432287.07</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>45646</v>
-          </cell>
-          <cell r="B166">
-            <v>41489549.520000003</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167">
-            <v>45649</v>
-          </cell>
-          <cell r="B167">
-            <v>41428203.450000003</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>45650</v>
-          </cell>
-          <cell r="B168">
-            <v>41469496.369999997</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>45652</v>
-          </cell>
-          <cell r="B169">
-            <v>41417725.649999999</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>45653</v>
-          </cell>
-          <cell r="B170">
-            <v>41301111.460000001</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>45656</v>
-          </cell>
-          <cell r="B171">
-            <v>41197536.740000002</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>45657</v>
-          </cell>
-          <cell r="B172">
-            <v>41233531.280000001</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173">
-            <v>45659</v>
-          </cell>
-          <cell r="B173">
-            <v>41344049.32</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174">
-            <v>45660</v>
-          </cell>
-          <cell r="B174">
-            <v>41368054.600000001</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175">
-            <v>45663</v>
-          </cell>
-          <cell r="B175">
-            <v>41387432.829999998</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176">
-            <v>45664</v>
-          </cell>
-          <cell r="B176">
-            <v>41034062</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177">
-            <v>45665</v>
-          </cell>
-          <cell r="B177">
-            <v>41073417.32</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178">
-            <v>45666</v>
-          </cell>
-          <cell r="B178">
-            <v>40920410.060000002</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>45667</v>
-          </cell>
-          <cell r="B179">
-            <v>40860129.859999999</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180">
-            <v>45670</v>
-          </cell>
-          <cell r="B180">
-            <v>40706147.939999998</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181">
-            <v>45671</v>
-          </cell>
-          <cell r="B181">
-            <v>40347536.32</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182">
-            <v>45672</v>
-          </cell>
-          <cell r="B182">
-            <v>40393103.009999998</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183">
-            <v>45673</v>
-          </cell>
-          <cell r="B183">
-            <v>40224311.07</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>45674</v>
-          </cell>
-          <cell r="B184">
-            <v>40123171.189999998</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>45677</v>
-          </cell>
-          <cell r="B185">
-            <v>39901347.759999998</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>45678</v>
-          </cell>
-          <cell r="B186">
-            <v>39725422.810000002</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>45679</v>
-          </cell>
-          <cell r="B187">
-            <v>39634662.640000001</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>45680</v>
-          </cell>
-          <cell r="B188">
-            <v>39642551.93</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>45681</v>
-          </cell>
-          <cell r="B189">
-            <v>39514133.770000003</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>45684</v>
-          </cell>
-          <cell r="B190">
-            <v>39364951.670000002</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>45685</v>
-          </cell>
-          <cell r="B191">
-            <v>39580221.960000001</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>45686</v>
-          </cell>
-          <cell r="B192">
-            <v>39569298.490000002</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>45687</v>
-          </cell>
-          <cell r="B193">
-            <v>39755121.520000003</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>45688</v>
-          </cell>
-          <cell r="B194">
-            <v>39716788.789999999</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>45691</v>
-          </cell>
-          <cell r="B195">
-            <v>39678132.689999998</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>45692</v>
-          </cell>
-          <cell r="B196">
-            <v>39613514.140000001</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197">
-            <v>45693</v>
-          </cell>
-          <cell r="B197">
-            <v>39637411.68</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198">
-            <v>45694</v>
-          </cell>
-          <cell r="B198">
-            <v>39629647.280000001</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199">
-            <v>45695</v>
-          </cell>
-          <cell r="B199">
-            <v>39575786.850000001</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200">
-            <v>45698</v>
-          </cell>
-          <cell r="B200">
-            <v>39574965.590000004</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201">
-            <v>45699</v>
-          </cell>
-          <cell r="B201">
-            <v>39404187.899999999</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>45700</v>
-          </cell>
-          <cell r="B202">
-            <v>39468056.140000001</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>45701</v>
-          </cell>
-          <cell r="B203">
-            <v>39482775.43</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>45702</v>
-          </cell>
-          <cell r="B204">
-            <v>39565282.880000003</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>45705</v>
-          </cell>
-          <cell r="B205">
-            <v>39594228.850000001</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>45706</v>
-          </cell>
-          <cell r="B206">
-            <v>39183418.420000002</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>45707</v>
-          </cell>
-          <cell r="B207">
-            <v>38923791.299999997</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208">
-            <v>45708</v>
-          </cell>
-          <cell r="B208">
-            <v>38734645.659999996</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209">
-            <v>45709</v>
-          </cell>
-          <cell r="B209">
-            <v>38653555.600000001</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>45712</v>
-          </cell>
-          <cell r="B210">
-            <v>38503718.259999998</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211">
-            <v>45713</v>
-          </cell>
-          <cell r="B211">
-            <v>38516485.149999999</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212">
-            <v>45714</v>
-          </cell>
-          <cell r="B212">
-            <v>38422758.93</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213">
-            <v>45715</v>
-          </cell>
-          <cell r="B213">
-            <v>37960559.600000001</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214">
-            <v>45716</v>
-          </cell>
-          <cell r="B214">
-            <v>37895044.090000004</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215">
-            <v>45721</v>
-          </cell>
-          <cell r="B215">
-            <v>37067753.560000002</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216">
-            <v>45722</v>
-          </cell>
-          <cell r="B216">
-            <v>36919151.759999998</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217">
-            <v>45723</v>
-          </cell>
-          <cell r="B217">
-            <v>36810860.490000002</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218">
-            <v>45726</v>
-          </cell>
-          <cell r="B218">
-            <v>36428405.759999998</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219">
-            <v>45727</v>
-          </cell>
-          <cell r="B219">
-            <v>36301123.93</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220">
-            <v>45728</v>
-          </cell>
-          <cell r="B220">
-            <v>36084737.039999999</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221">
-            <v>45729</v>
-          </cell>
-          <cell r="B221">
-            <v>35983753.020000003</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222">
-            <v>45730</v>
-          </cell>
-          <cell r="B222">
-            <v>35860872.619999997</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223">
-            <v>45733</v>
-          </cell>
-          <cell r="B223">
-            <v>35585055.770000003</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224">
-            <v>45734</v>
-          </cell>
-          <cell r="B224">
-            <v>35628441.170000002</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225">
-            <v>45735</v>
-          </cell>
-          <cell r="B225">
-            <v>35372300.490000002</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226">
-            <v>45736</v>
-          </cell>
-          <cell r="B226">
-            <v>34755017.990000002</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227">
-            <v>45737</v>
-          </cell>
-          <cell r="B227">
-            <v>34503068.880000003</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228">
-            <v>45740</v>
-          </cell>
-          <cell r="B228">
-            <v>34362623.509999998</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229">
-            <v>45741</v>
-          </cell>
-          <cell r="B229">
-            <v>34135541.520000003</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230">
-            <v>45742</v>
-          </cell>
-          <cell r="B230">
-            <v>34045611.039999999</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231">
-            <v>45743</v>
-          </cell>
-          <cell r="B231">
-            <v>33917845.630000003</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232">
-            <v>45744</v>
-          </cell>
-          <cell r="B232">
-            <v>33908950.359999999</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="A233">
-            <v>45747</v>
-          </cell>
-          <cell r="B233">
-            <v>33846317.960000001</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="A234">
-            <v>45748</v>
-          </cell>
-          <cell r="B234">
-            <v>33764049.719999999</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="A235">
-            <v>45749</v>
-          </cell>
-          <cell r="B235">
-            <v>33451910.41</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="A236">
-            <v>45750</v>
-          </cell>
-          <cell r="B236">
-            <v>33470226.760000002</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="A237">
-            <v>45751</v>
-          </cell>
-          <cell r="B237">
-            <v>33423741.260000002</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="A238">
-            <v>45754</v>
-          </cell>
-          <cell r="B238">
-            <v>33472242</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="A239">
-            <v>45755</v>
-          </cell>
-          <cell r="B239">
-            <v>33483088.23</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="A240">
-            <v>45756</v>
-          </cell>
-          <cell r="B240">
-            <v>33439829.850000001</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="A241">
-            <v>45757</v>
-          </cell>
-          <cell r="B241">
-            <v>33337805.329999998</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="A242">
-            <v>45758</v>
-          </cell>
-          <cell r="B242">
-            <v>33450271.449999999</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="A243">
-            <v>45761</v>
-          </cell>
-          <cell r="B243">
-            <v>33161847.890000001</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="A244">
-            <v>45762</v>
-          </cell>
-          <cell r="B244">
-            <v>32939209.510000002</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="A245">
-            <v>45763</v>
-          </cell>
-          <cell r="B245">
-            <v>32439366.219999999</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="A246">
-            <v>45764</v>
-          </cell>
-          <cell r="B246">
-            <v>31937952.210000001</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247">
-            <v>45769</v>
-          </cell>
-          <cell r="B247">
-            <v>30708769.170000002</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="A248">
-            <v>45770</v>
-          </cell>
-          <cell r="B248">
-            <v>30570507.960000001</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249">
-            <v>45771</v>
-          </cell>
-          <cell r="B249">
-            <v>30473150.559999999</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250">
-            <v>45772</v>
-          </cell>
-          <cell r="B250">
-            <v>30297058.5</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251">
-            <v>45775</v>
-          </cell>
-          <cell r="B251">
-            <v>30263808.960000001</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252">
-            <v>45776</v>
-          </cell>
-          <cell r="B252">
-            <v>29883376.440000001</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253">
-            <v>45777</v>
-          </cell>
-          <cell r="B253">
-            <v>29834775.640000001</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254">
-            <v>45779</v>
-          </cell>
-          <cell r="B254">
-            <v>29696974.010000002</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="A255">
-            <v>45782</v>
-          </cell>
-          <cell r="B255">
-            <v>29473054.219999999</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="A256">
-            <v>45783</v>
-          </cell>
-          <cell r="B256">
-            <v>29502452.66</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="A257">
-            <v>45784</v>
-          </cell>
-          <cell r="B257">
-            <v>29368106.75</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="A258">
-            <v>45785</v>
-          </cell>
-          <cell r="B258">
-            <v>29288671.359999999</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="A259">
-            <v>45786</v>
-          </cell>
-          <cell r="B259">
-            <v>29002710.129999999</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="A260">
-            <v>45789</v>
-          </cell>
-          <cell r="B260">
-            <v>28974407.640000001</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="A261">
-            <v>45790</v>
-          </cell>
-          <cell r="B261">
-            <v>29013253.34</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="A262">
-            <v>45791</v>
-          </cell>
-          <cell r="B262">
-            <v>28874143.539999999</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="A263">
-            <v>45792</v>
-          </cell>
-          <cell r="B263">
-            <v>28743347.440000001</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="A264">
-            <v>45793</v>
-          </cell>
-          <cell r="B264">
-            <v>28758557.260000002</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="A265">
-            <v>45796</v>
-          </cell>
-          <cell r="B265">
-            <v>28769652.969999999</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="A266">
-            <v>45797</v>
-          </cell>
-          <cell r="B266">
-            <v>28438626.219999999</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="A267">
-            <v>45798</v>
-          </cell>
-          <cell r="B267">
-            <v>28307424.379999999</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="A268">
-            <v>45799</v>
-          </cell>
-          <cell r="B268">
-            <v>28054351.32</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="A269">
-            <v>45800</v>
-          </cell>
-          <cell r="B269">
-            <v>28135699.670000002</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="A270">
-            <v>45803</v>
-          </cell>
-          <cell r="B270">
-            <v>28164089.609999999</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="A271">
-            <v>45804</v>
-          </cell>
-          <cell r="B271">
-            <v>27374467.059999999</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="A272">
-            <v>45805</v>
-          </cell>
-          <cell r="B272">
-            <v>27273760.370000001</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="A273">
-            <v>45806</v>
-          </cell>
-          <cell r="B273">
-            <v>27234442.079999998</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="A274">
-            <v>45807</v>
-          </cell>
-          <cell r="B274">
-            <v>26969526.829999998</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2666,10 +452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DB13AA-8D9A-40F6-BD03-E8FAB1FF6A5A}">
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:I274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H276" sqref="H276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2735,7 +522,6 @@
         <v>4.0167999999995985E-4</v>
       </c>
       <c r="H2">
-        <f>VLOOKUP(A2,[1]Planilha3!$A:$B,2,0)</f>
         <v>11762552.73</v>
       </c>
     </row>
@@ -2766,7 +552,6 @@
         <v>8.0352134682226684E-4</v>
       </c>
       <c r="H3">
-        <f>VLOOKUP(A3,[1]Planilha3!$A:$B,2,0)</f>
         <v>11766953.800000001</v>
       </c>
     </row>
@@ -2797,7 +582,6 @@
         <v>1.2055241052768562E-3</v>
       </c>
       <c r="H4">
-        <f>VLOOKUP(A4,[1]Planilha3!$A:$B,2,0)</f>
         <v>13224959.300000001</v>
       </c>
     </row>
@@ -2828,7 +612,6 @@
         <v>1.6076883401994202E-3</v>
       </c>
       <c r="H5">
-        <f>VLOOKUP(A5,[1]Planilha3!$A:$B,2,0)</f>
         <v>18695150.329999998</v>
       </c>
     </row>
@@ -2859,7 +642,6 @@
         <v>2.0100141164518526E-3</v>
       </c>
       <c r="H6">
-        <f>VLOOKUP(A6,[1]Planilha3!$A:$B,2,0)</f>
         <v>19118110.329999998</v>
       </c>
     </row>
@@ -2890,7 +672,6 @@
         <v>2.4125014989220261E-3</v>
       </c>
       <c r="H7">
-        <f>VLOOKUP(A7,[1]Planilha3!$A:$B,2,0)</f>
         <v>19828276.68</v>
       </c>
     </row>
@@ -2921,7 +702,6 @@
         <v>2.8061488882604735E-3</v>
       </c>
       <c r="H8">
-        <f>VLOOKUP(A8,[1]Planilha3!$A:$B,2,0)</f>
         <v>20432466.260000002</v>
       </c>
     </row>
@@ -2952,7 +732,6 @@
         <v>3.1999508629287909E-3</v>
       </c>
       <c r="H9">
-        <f>VLOOKUP(A9,[1]Planilha3!$A:$B,2,0)</f>
         <v>22008258.02</v>
       </c>
     </row>
@@ -2983,7 +762,6 @@
         <v>3.5939074836326412E-3</v>
       </c>
       <c r="H10">
-        <f>VLOOKUP(A10,[1]Planilha3!$A:$B,2,0)</f>
         <v>22689331.27</v>
       </c>
     </row>
@@ -3014,7 +792,6 @@
         <v>3.9880188111014458E-3</v>
       </c>
       <c r="H11">
-        <f>VLOOKUP(A11,[1]Planilha3!$A:$B,2,0)</f>
         <v>23514543.989999998</v>
       </c>
     </row>
@@ -3045,7 +822,6 @@
         <v>4.3822849060883851E-3</v>
       </c>
       <c r="H12">
-        <f>VLOOKUP(A12,[1]Planilha3!$A:$B,2,0)</f>
         <v>25239143.449999999</v>
       </c>
     </row>
@@ -3076,7 +852,6 @@
         <v>4.776705829370842E-3</v>
       </c>
       <c r="H13">
-        <f>VLOOKUP(A13,[1]Planilha3!$A:$B,2,0)</f>
         <v>28518610.949999999</v>
       </c>
     </row>
@@ -3107,7 +882,6 @@
         <v>5.1712816417499585E-3</v>
       </c>
       <c r="H14">
-        <f>VLOOKUP(A14,[1]Planilha3!$A:$B,2,0)</f>
         <v>29833856.030000001</v>
       </c>
     </row>
@@ -3138,7 +912,6 @@
         <v>5.5660124040506354E-3</v>
       </c>
       <c r="H15">
-        <f>VLOOKUP(A15,[1]Planilha3!$A:$B,2,0)</f>
         <v>30735489.920000002</v>
       </c>
     </row>
@@ -3169,7 +942,6 @@
         <v>5.9608981771215319E-3</v>
       </c>
       <c r="H16">
-        <f>VLOOKUP(A16,[1]Planilha3!$A:$B,2,0)</f>
         <v>31349214.84</v>
       </c>
     </row>
@@ -3200,7 +972,6 @@
         <v>6.3559390218355105E-3</v>
       </c>
       <c r="H17">
-        <f>VLOOKUP(A17,[1]Planilha3!$A:$B,2,0)</f>
         <v>32119715.100000001</v>
       </c>
     </row>
@@ -3231,7 +1002,6 @@
         <v>6.7511349990891922E-3</v>
       </c>
       <c r="H18">
-        <f>VLOOKUP(A18,[1]Planilha3!$A:$B,2,0)</f>
         <v>32892998.539999999</v>
       </c>
     </row>
@@ -3262,7 +1032,6 @@
         <v>7.146486169803179E-3</v>
       </c>
       <c r="H19">
-        <f>VLOOKUP(A19,[1]Planilha3!$A:$B,2,0)</f>
         <v>33449571.57</v>
       </c>
     </row>
@@ -3293,7 +1062,6 @@
         <v>7.5419925949220534E-3</v>
       </c>
       <c r="H20">
-        <f>VLOOKUP(A20,[1]Planilha3!$A:$B,2,0)</f>
         <v>34359506.649999999</v>
       </c>
     </row>
@@ -3324,7 +1092,6 @@
         <v>7.9376543354139351E-3</v>
       </c>
       <c r="H21">
-        <f>VLOOKUP(A21,[1]Planilha3!$A:$B,2,0)</f>
         <v>35855758.409999996</v>
       </c>
     </row>
@@ -3355,7 +1122,6 @@
         <v>8.3334714522713682E-3</v>
       </c>
       <c r="H22">
-        <f>VLOOKUP(A22,[1]Planilha3!$A:$B,2,0)</f>
         <v>38422682.119999997</v>
       </c>
     </row>
@@ -3386,7 +1152,6 @@
         <v>8.729444006510656E-3</v>
       </c>
       <c r="H23">
-        <f>VLOOKUP(A23,[1]Planilha3!$A:$B,2,0)</f>
         <v>40303057.219999999</v>
       </c>
       <c r="I23" s="3"/>
@@ -3418,7 +1183,6 @@
         <v>9.1255720591718603E-3</v>
       </c>
       <c r="H24">
-        <f>VLOOKUP(A24,[1]Planilha3!$A:$B,2,0)</f>
         <v>41613660.890000001</v>
       </c>
     </row>
@@ -3449,7 +1213,6 @@
         <v>9.521855671319468E-3</v>
       </c>
       <c r="H25">
-        <f>VLOOKUP(A25,[1]Planilha3!$A:$B,2,0)</f>
         <v>42882387.770000003</v>
       </c>
     </row>
@@ -3480,7 +1243,6 @@
         <v>9.9182949040415025E-3</v>
       </c>
       <c r="H26">
-        <f>VLOOKUP(A26,[1]Planilha3!$A:$B,2,0)</f>
         <v>43017252.219999999</v>
       </c>
     </row>
@@ -3511,7 +1273,6 @@
         <v>1.031488981845019E-2</v>
       </c>
       <c r="H27">
-        <f>VLOOKUP(A27,[1]Planilha3!$A:$B,2,0)</f>
         <v>43096192.409999996</v>
       </c>
     </row>
@@ -3542,7 +1303,6 @@
         <v>1.0711640475681738E-2</v>
       </c>
       <c r="H28">
-        <f>VLOOKUP(A28,[1]Planilha3!$A:$B,2,0)</f>
         <v>43057727.920000002</v>
       </c>
     </row>
@@ -3573,7 +1333,6 @@
         <v>1.1108546936896557E-2</v>
       </c>
       <c r="H29">
-        <f>VLOOKUP(A29,[1]Planilha3!$A:$B,2,0)</f>
         <v>43077427.950000003</v>
       </c>
     </row>
@@ -3604,7 +1363,6 @@
         <v>1.1505609263278593E-2</v>
       </c>
       <c r="H30">
-        <f>VLOOKUP(A30,[1]Planilha3!$A:$B,2,0)</f>
         <v>43107494.780000001</v>
       </c>
     </row>
@@ -3635,7 +1393,6 @@
         <v>1.1902827516036218E-2</v>
       </c>
       <c r="H31">
-        <f>VLOOKUP(A31,[1]Planilha3!$A:$B,2,0)</f>
         <v>43125927.380000003</v>
       </c>
     </row>
@@ -3666,7 +1423,6 @@
         <v>1.2300201756401785E-2</v>
       </c>
       <c r="H32">
-        <f>VLOOKUP(A32,[1]Planilha3!$A:$B,2,0)</f>
         <v>43195881.609999999</v>
       </c>
     </row>
@@ -3697,7 +1453,6 @@
         <v>1.2697732045631405E-2</v>
       </c>
       <c r="H33">
-        <f>VLOOKUP(A33,[1]Planilha3!$A:$B,2,0)</f>
         <v>43342513.899999999</v>
       </c>
     </row>
@@ -3728,7 +1483,6 @@
         <v>1.3095418445005613E-2</v>
       </c>
       <c r="H34">
-        <f>VLOOKUP(A34,[1]Planilha3!$A:$B,2,0)</f>
         <v>43405843.57</v>
       </c>
     </row>
@@ -3759,7 +1513,6 @@
         <v>1.3493261015828928E-2</v>
       </c>
       <c r="H35">
-        <f>VLOOKUP(A35,[1]Planilha3!$A:$B,2,0)</f>
         <v>43535247.770000003</v>
       </c>
     </row>
@@ -3790,7 +1543,6 @@
         <v>1.3891259819429846E-2</v>
       </c>
       <c r="H36">
-        <f>VLOOKUP(A36,[1]Planilha3!$A:$B,2,0)</f>
         <v>43673230.799999997</v>
       </c>
     </row>
@@ -3821,7 +1573,6 @@
         <v>1.4289414917160848E-2</v>
       </c>
       <c r="H37">
-        <f>VLOOKUP(A37,[1]Planilha3!$A:$B,2,0)</f>
         <v>43697818.020000003</v>
       </c>
     </row>
@@ -3852,7 +1603,6 @@
         <v>1.4687726370398835E-2</v>
       </c>
       <c r="H38">
-        <f>VLOOKUP(A38,[1]Planilha3!$A:$B,2,0)</f>
         <v>43875421.700000003</v>
       </c>
     </row>
@@ -3883,7 +1633,6 @@
         <v>1.508619424054447E-2</v>
       </c>
       <c r="H39">
-        <f>VLOOKUP(A39,[1]Planilha3!$A:$B,2,0)</f>
         <v>43954230.359999999</v>
       </c>
     </row>
@@ -3914,7 +1663,6 @@
         <v>1.548481858902262E-2</v>
       </c>
       <c r="H40">
-        <f>VLOOKUP(A40,[1]Planilha3!$A:$B,2,0)</f>
         <v>43967797.509999998</v>
       </c>
     </row>
@@ -3945,7 +1693,6 @@
         <v>1.5883599477282351E-2</v>
       </c>
       <c r="H41">
-        <f>VLOOKUP(A41,[1]Planilha3!$A:$B,2,0)</f>
         <v>43974456.899999999</v>
       </c>
     </row>
@@ -3976,7 +1723,6 @@
         <v>1.6282536966796934E-2</v>
       </c>
       <c r="H42">
-        <f>VLOOKUP(A42,[1]Planilha3!$A:$B,2,0)</f>
         <v>44093224.289999999</v>
       </c>
     </row>
@@ -4007,7 +1753,6 @@
         <v>1.6681631119063622E-2</v>
       </c>
       <c r="H43">
-        <f>VLOOKUP(A43,[1]Planilha3!$A:$B,2,0)</f>
         <v>44058221.229999997</v>
       </c>
     </row>
@@ -4038,7 +1783,6 @@
         <v>1.7080881995604091E-2</v>
       </c>
       <c r="H44">
-        <f>VLOOKUP(A44,[1]Planilha3!$A:$B,2,0)</f>
         <v>44022959.43</v>
       </c>
     </row>
@@ -4069,7 +1813,6 @@
         <v>1.7480289657963777E-2</v>
       </c>
       <c r="H45">
-        <f>VLOOKUP(A45,[1]Planilha3!$A:$B,2,0)</f>
         <v>44110929.030000001</v>
       </c>
     </row>
@@ -4100,7 +1843,6 @@
         <v>1.7879854167712317E-2</v>
       </c>
       <c r="H46">
-        <f>VLOOKUP(A46,[1]Planilha3!$A:$B,2,0)</f>
         <v>44251733.670000002</v>
       </c>
     </row>
@@ -4131,7 +1873,6 @@
         <v>1.8279575586443997E-2</v>
       </c>
       <c r="H47">
-        <f>VLOOKUP(A47,[1]Planilha3!$A:$B,2,0)</f>
         <v>44369978.329999998</v>
       </c>
     </row>
@@ -4162,7 +1903,6 @@
         <v>1.8679453975776639E-2</v>
       </c>
       <c r="H48">
-        <f>VLOOKUP(A48,[1]Planilha3!$A:$B,2,0)</f>
         <v>44452542.030000001</v>
       </c>
     </row>
@@ -4193,7 +1933,6 @@
         <v>1.9079489397352933E-2</v>
       </c>
       <c r="H49">
-        <f>VLOOKUP(A49,[1]Planilha3!$A:$B,2,0)</f>
         <v>44440080.710000001</v>
       </c>
     </row>
@@ -4224,7 +1963,6 @@
         <v>1.9479681912839109E-2</v>
       </c>
       <c r="H50">
-        <f>VLOOKUP(A50,[1]Planilha3!$A:$B,2,0)</f>
         <v>44510576.340000004</v>
       </c>
     </row>
@@ -4255,7 +1993,6 @@
         <v>1.9880031583926261E-2</v>
       </c>
       <c r="H51">
-        <f>VLOOKUP(A51,[1]Planilha3!$A:$B,2,0)</f>
         <v>44644116</v>
       </c>
     </row>
@@ -4286,7 +2023,6 @@
         <v>2.0280538472329246E-2</v>
       </c>
       <c r="H52">
-        <f>VLOOKUP(A52,[1]Planilha3!$A:$B,2,0)</f>
         <v>44736339.57</v>
       </c>
     </row>
@@ -4317,7 +2053,6 @@
         <v>2.0681202639787344E-2</v>
       </c>
       <c r="H53">
-        <f>VLOOKUP(A53,[1]Planilha3!$A:$B,2,0)</f>
         <v>44791164.789999999</v>
       </c>
     </row>
@@ -4348,7 +2083,6 @@
         <v>2.1082024148063816E-2</v>
       </c>
       <c r="H54">
-        <f>VLOOKUP(A54,[1]Planilha3!$A:$B,2,0)</f>
         <v>44815349.880000003</v>
       </c>
     </row>
@@ -4379,7 +2113,6 @@
         <v>2.148300305894657E-2</v>
       </c>
       <c r="H55">
-        <f>VLOOKUP(A55,[1]Planilha3!$A:$B,2,0)</f>
         <v>44835169.57</v>
       </c>
     </row>
@@ -4410,7 +2143,6 @@
         <v>2.1884139434247718E-2</v>
       </c>
       <c r="H56">
-        <f>VLOOKUP(A56,[1]Planilha3!$A:$B,2,0)</f>
         <v>44840790.530000001</v>
       </c>
     </row>
@@ -4441,7 +2173,6 @@
         <v>2.2285433335803351E-2</v>
       </c>
       <c r="H57">
-        <f>VLOOKUP(A57,[1]Planilha3!$A:$B,2,0)</f>
         <v>44710922.390000001</v>
       </c>
     </row>
@@ -4472,7 +2203,6 @@
         <v>2.2686884825474207E-2</v>
       </c>
       <c r="H58">
-        <f>VLOOKUP(A58,[1]Planilha3!$A:$B,2,0)</f>
         <v>44760033.469999999</v>
       </c>
     </row>
@@ -4503,7 +2233,6 @@
         <v>2.3088493965145007E-2</v>
       </c>
       <c r="H59">
-        <f>VLOOKUP(A59,[1]Planilha3!$A:$B,2,0)</f>
         <v>44824487.07</v>
       </c>
     </row>
@@ -4534,7 +2263,6 @@
         <v>2.3490260816725117E-2</v>
       </c>
       <c r="H60">
-        <f>VLOOKUP(A60,[1]Planilha3!$A:$B,2,0)</f>
         <v>44827867.439999998</v>
       </c>
     </row>
@@ -4565,7 +2293,6 @@
         <v>2.3892185442147662E-2</v>
       </c>
       <c r="H61">
-        <f>VLOOKUP(A61,[1]Planilha3!$A:$B,2,0)</f>
         <v>44823438.899999999</v>
       </c>
     </row>
@@ -4596,7 +2323,6 @@
         <v>2.4294267903370637E-2</v>
       </c>
       <c r="H62">
-        <f>VLOOKUP(A62,[1]Planilha3!$A:$B,2,0)</f>
         <v>44864851.469999999</v>
       </c>
     </row>
@@ -4627,7 +2353,6 @@
         <v>2.4696508262376238E-2</v>
       </c>
       <c r="H63">
-        <f>VLOOKUP(A63,[1]Planilha3!$A:$B,2,0)</f>
         <v>45034738.18</v>
       </c>
     </row>
@@ -4658,7 +2383,6 @@
         <v>2.5098906581170866E-2</v>
       </c>
       <c r="H64">
-        <f>VLOOKUP(A64,[1]Planilha3!$A:$B,2,0)</f>
         <v>45045461.850000001</v>
       </c>
     </row>
@@ -4689,7 +2413,6 @@
         <v>2.5501462921785123E-2</v>
       </c>
       <c r="H65">
-        <f>VLOOKUP(A65,[1]Planilha3!$A:$B,2,0)</f>
         <v>45111230.43</v>
       </c>
     </row>
@@ -4720,7 +2443,6 @@
         <v>2.5904177346274482E-2</v>
       </c>
       <c r="H66">
-        <f>VLOOKUP(A66,[1]Planilha3!$A:$B,2,0)</f>
         <v>45230176.450000003</v>
       </c>
     </row>
@@ -4751,7 +2473,6 @@
         <v>2.6307049916718173E-2</v>
       </c>
       <c r="H67">
-        <f>VLOOKUP(A67,[1]Planilha3!$A:$B,2,0)</f>
         <v>45316146.100000001</v>
       </c>
     </row>
@@ -4782,7 +2503,6 @@
         <v>2.6710080695220295E-2</v>
       </c>
       <c r="H68">
-        <f>VLOOKUP(A68,[1]Planilha3!$A:$B,2,0)</f>
         <v>45231329.130000003</v>
       </c>
     </row>
@@ -4813,7 +2533,6 @@
         <v>2.7113269743909152E-2</v>
       </c>
       <c r="H69">
-        <f>VLOOKUP(A69,[1]Planilha3!$A:$B,2,0)</f>
         <v>45241450.380000003</v>
       </c>
     </row>
@@ -4844,7 +2563,6 @@
         <v>2.751661712493747E-2</v>
       </c>
       <c r="H70">
-        <f>VLOOKUP(A70,[1]Planilha3!$A:$B,2,0)</f>
         <v>45205264.280000001</v>
       </c>
     </row>
@@ -4875,7 +2593,6 @@
         <v>2.7920122900482403E-2</v>
       </c>
       <c r="H71">
-        <f>VLOOKUP(A71,[1]Planilha3!$A:$B,2,0)</f>
         <v>45328089.590000004</v>
       </c>
     </row>
@@ -4906,7 +2623,6 @@
         <v>2.8323787132745304E-2</v>
       </c>
       <c r="H72">
-        <f>VLOOKUP(A72,[1]Planilha3!$A:$B,2,0)</f>
         <v>45527835.859999999</v>
       </c>
     </row>
@@ -4937,7 +2653,6 @@
         <v>2.8727609883952177E-2</v>
       </c>
       <c r="H73">
-        <f>VLOOKUP(A73,[1]Planilha3!$A:$B,2,0)</f>
         <v>46193370.649999999</v>
       </c>
     </row>
@@ -4968,7 +2683,6 @@
         <v>2.9131591216353447E-2</v>
       </c>
       <c r="H74">
-        <f>VLOOKUP(A74,[1]Planilha3!$A:$B,2,0)</f>
         <v>46315335.090000004</v>
       </c>
     </row>
@@ -4999,7 +2713,6 @@
         <v>2.9535731192223968E-2</v>
       </c>
       <c r="H75">
-        <f>VLOOKUP(A75,[1]Planilha3!$A:$B,2,0)</f>
         <v>46540040.140000001</v>
       </c>
     </row>
@@ -5030,7 +2743,6 @@
         <v>2.9940029873863017E-2</v>
       </c>
       <c r="H76">
-        <f>VLOOKUP(A76,[1]Planilha3!$A:$B,2,0)</f>
         <v>46650008.100000001</v>
       </c>
     </row>
@@ -5061,7 +2773,6 @@
         <v>3.0344487323594294E-2</v>
       </c>
       <c r="H77">
-        <f>VLOOKUP(A77,[1]Planilha3!$A:$B,2,0)</f>
         <v>46805430.020000003</v>
       </c>
     </row>
@@ -5092,7 +2803,6 @@
         <v>3.0749103603766148E-2</v>
       </c>
       <c r="H78">
-        <f>VLOOKUP(A78,[1]Planilha3!$A:$B,2,0)</f>
         <v>46997371.119999997</v>
       </c>
     </row>
@@ -5123,7 +2833,6 @@
         <v>3.1153878776751354E-2</v>
       </c>
       <c r="H79">
-        <f>VLOOKUP(A79,[1]Planilha3!$A:$B,2,0)</f>
         <v>47303702.770000003</v>
       </c>
     </row>
@@ -5154,7 +2863,6 @@
         <v>3.1558812904946887E-2</v>
       </c>
       <c r="H80">
-        <f>VLOOKUP(A80,[1]Planilha3!$A:$B,2,0)</f>
         <v>47315155.310000002</v>
       </c>
     </row>
@@ -5185,7 +2893,6 @@
         <v>3.1963906050774593E-2</v>
       </c>
       <c r="H81">
-        <f>VLOOKUP(A81,[1]Planilha3!$A:$B,2,0)</f>
         <v>47338527.649999999</v>
       </c>
     </row>
@@ -5216,7 +2923,6 @@
         <v>3.2369158276680743E-2</v>
       </c>
       <c r="H82">
-        <f>VLOOKUP(A82,[1]Planilha3!$A:$B,2,0)</f>
         <v>47427455.609999999</v>
       </c>
     </row>
@@ -5247,7 +2953,6 @@
         <v>3.2774569645135809E-2</v>
       </c>
       <c r="H83">
-        <f>VLOOKUP(A83,[1]Planilha3!$A:$B,2,0)</f>
         <v>47697727.909999996</v>
       </c>
     </row>
@@ -5278,7 +2983,6 @@
         <v>3.3180140218635357E-2</v>
       </c>
       <c r="H84">
-        <f>VLOOKUP(A84,[1]Planilha3!$A:$B,2,0)</f>
         <v>47666358.210000001</v>
       </c>
     </row>
@@ -5309,7 +3013,6 @@
         <v>3.3585870059699152E-2</v>
       </c>
       <c r="H85">
-        <f>VLOOKUP(A85,[1]Planilha3!$A:$B,2,0)</f>
         <v>47741470.259999998</v>
       </c>
     </row>
@@ -5340,7 +3043,6 @@
         <v>3.399175923087161E-2</v>
       </c>
       <c r="H86">
-        <f>VLOOKUP(A86,[1]Planilha3!$A:$B,2,0)</f>
         <v>47889994.979999997</v>
       </c>
     </row>
@@ -5371,7 +3073,6 @@
         <v>3.4397807794721569E-2</v>
       </c>
       <c r="H87">
-        <f>VLOOKUP(A87,[1]Planilha3!$A:$B,2,0)</f>
         <v>47896999.590000004</v>
       </c>
     </row>
@@ -5402,7 +3103,6 @@
         <v>3.4804015813842515E-2</v>
       </c>
       <c r="H88">
-        <f>VLOOKUP(A88,[1]Planilha3!$A:$B,2,0)</f>
         <v>47951521.340000004</v>
       </c>
     </row>
@@ -5433,7 +3133,6 @@
         <v>3.5210383350852581E-2</v>
       </c>
       <c r="H89">
-        <f>VLOOKUP(A89,[1]Planilha3!$A:$B,2,0)</f>
         <v>47964661.810000002</v>
       </c>
     </row>
@@ -5464,7 +3163,6 @@
         <v>3.5616910468394325E-2</v>
       </c>
       <c r="H90">
-        <f>VLOOKUP(A90,[1]Planilha3!$A:$B,2,0)</f>
         <v>47859417.659999996</v>
       </c>
     </row>
@@ -5495,7 +3193,6 @@
         <v>3.6023597229135174E-2</v>
       </c>
       <c r="H91">
-        <f>VLOOKUP(A91,[1]Planilha3!$A:$B,2,0)</f>
         <v>47983505.109999999</v>
       </c>
     </row>
@@ -5526,7 +3223,6 @@
         <v>3.6430443695766979E-2</v>
       </c>
       <c r="H92">
-        <f>VLOOKUP(A92,[1]Planilha3!$A:$B,2,0)</f>
         <v>47982262.380000003</v>
       </c>
     </row>
@@ -5557,7 +3253,6 @@
         <v>3.6837449931006239E-2</v>
       </c>
       <c r="H93">
-        <f>VLOOKUP(A93,[1]Planilha3!$A:$B,2,0)</f>
         <v>47877609.030000001</v>
       </c>
     </row>
@@ -5588,7 +3283,6 @@
         <v>3.7244615997594099E-2</v>
       </c>
       <c r="H94">
-        <f>VLOOKUP(A94,[1]Planilha3!$A:$B,2,0)</f>
         <v>47796770.310000002</v>
       </c>
     </row>
@@ -5619,7 +3313,6 @@
         <v>3.7651941958296353E-2</v>
       </c>
       <c r="H95">
-        <f>VLOOKUP(A95,[1]Planilha3!$A:$B,2,0)</f>
         <v>47867003.189999998</v>
       </c>
     </row>
@@ -5650,7 +3343,6 @@
         <v>3.8059427875903218E-2</v>
       </c>
       <c r="H96">
-        <f>VLOOKUP(A96,[1]Planilha3!$A:$B,2,0)</f>
         <v>47987606.899999999</v>
       </c>
     </row>
@@ -5681,7 +3373,6 @@
         <v>3.8467073813230002E-2</v>
       </c>
       <c r="H97">
-        <f>VLOOKUP(A97,[1]Planilha3!$A:$B,2,0)</f>
         <v>45967032.289999999</v>
       </c>
     </row>
@@ -5712,7 +3403,6 @@
         <v>3.8874879833116438E-2</v>
       </c>
       <c r="H98">
-        <f>VLOOKUP(A98,[1]Planilha3!$A:$B,2,0)</f>
         <v>46167403.93</v>
       </c>
     </row>
@@ -5743,7 +3433,6 @@
         <v>3.9282845998426907E-2</v>
       </c>
       <c r="H99">
-        <f>VLOOKUP(A99,[1]Planilha3!$A:$B,2,0)</f>
         <v>46172796.07</v>
       </c>
     </row>
@@ -5774,7 +3463,6 @@
         <v>3.9690972372050437E-2</v>
       </c>
       <c r="H100">
-        <f>VLOOKUP(A100,[1]Planilha3!$A:$B,2,0)</f>
         <v>46167474.32</v>
       </c>
     </row>
@@ -5805,7 +3493,6 @@
         <v>4.0099259016900923E-2</v>
       </c>
       <c r="H101">
-        <f>VLOOKUP(A101,[1]Planilha3!$A:$B,2,0)</f>
         <v>46126537.530000001</v>
       </c>
     </row>
@@ -5836,7 +3523,6 @@
         <v>4.0517046087262809E-2</v>
       </c>
       <c r="H102">
-        <f>VLOOKUP(A102,[1]Planilha3!$A:$B,2,0)</f>
         <v>46163562.009999998</v>
       </c>
     </row>
@@ -5867,7 +3553,6 @@
         <v>4.0935000974335001E-2</v>
       </c>
       <c r="H103">
-        <f>VLOOKUP(A103,[1]Planilha3!$A:$B,2,0)</f>
         <v>46087903.060000002</v>
       </c>
     </row>
@@ -5898,7 +3583,6 @@
         <v>4.1353123745526243E-2</v>
       </c>
       <c r="H104">
-        <f>VLOOKUP(A104,[1]Planilha3!$A:$B,2,0)</f>
         <v>46131605.560000002</v>
       </c>
     </row>
@@ -5929,7 +3613,6 @@
         <v>4.1771414468272372E-2</v>
       </c>
       <c r="H105">
-        <f>VLOOKUP(A105,[1]Planilha3!$A:$B,2,0)</f>
         <v>46207433.729999997</v>
       </c>
     </row>
@@ -5960,7 +3643,6 @@
         <v>4.2189873210035866E-2</v>
       </c>
       <c r="H106">
-        <f>VLOOKUP(A106,[1]Planilha3!$A:$B,2,0)</f>
         <v>46009733.380000003</v>
       </c>
     </row>
@@ -5991,7 +3673,6 @@
         <v>4.260850003830674E-2</v>
       </c>
       <c r="H107">
-        <f>VLOOKUP(A107,[1]Planilha3!$A:$B,2,0)</f>
         <v>46096116.450000003</v>
       </c>
     </row>
@@ -6022,7 +3703,6 @@
         <v>4.3027295020602097E-2</v>
       </c>
       <c r="H108">
-        <f>VLOOKUP(A108,[1]Planilha3!$A:$B,2,0)</f>
         <v>46155409.859999999</v>
       </c>
     </row>
@@ -6053,7 +3733,6 @@
         <v>4.3446258224465906E-2</v>
       </c>
       <c r="H109">
-        <f>VLOOKUP(A109,[1]Planilha3!$A:$B,2,0)</f>
         <v>46057454.810000002</v>
       </c>
     </row>
@@ -6084,7 +3763,6 @@
         <v>4.386538971746945E-2</v>
       </c>
       <c r="H110">
-        <f>VLOOKUP(A110,[1]Planilha3!$A:$B,2,0)</f>
         <v>46073816.630000003</v>
       </c>
     </row>
@@ -6115,7 +3793,6 @@
         <v>4.42846895672111E-2</v>
       </c>
       <c r="H111">
-        <f>VLOOKUP(A111,[1]Planilha3!$A:$B,2,0)</f>
         <v>46066172.689999998</v>
       </c>
     </row>
@@ -6146,7 +3823,6 @@
         <v>4.4704157841316317E-2</v>
       </c>
       <c r="H112">
-        <f>VLOOKUP(A112,[1]Planilha3!$A:$B,2,0)</f>
         <v>46036035.969999999</v>
       </c>
     </row>
@@ -6177,7 +3853,6 @@
         <v>4.5123794607437873E-2</v>
       </c>
       <c r="H113">
-        <f>VLOOKUP(A113,[1]Planilha3!$A:$B,2,0)</f>
         <v>46055516.969999999</v>
       </c>
     </row>
@@ -6208,7 +3883,6 @@
         <v>4.5543599933255852E-2</v>
       </c>
       <c r="H114">
-        <f>VLOOKUP(A114,[1]Planilha3!$A:$B,2,0)</f>
         <v>45994010.640000001</v>
       </c>
     </row>
@@ -6239,7 +3913,6 @@
         <v>4.5963573886476983E-2</v>
       </c>
       <c r="H115">
-        <f>VLOOKUP(A115,[1]Planilha3!$A:$B,2,0)</f>
         <v>46068979.659999996</v>
       </c>
     </row>
@@ -6270,7 +3943,6 @@
         <v>4.6383716534835751E-2</v>
       </c>
       <c r="H116">
-        <f>VLOOKUP(A116,[1]Planilha3!$A:$B,2,0)</f>
         <v>46087849.710000001</v>
       </c>
     </row>
@@ -6301,7 +3973,6 @@
         <v>4.6804027946093507E-2</v>
       </c>
       <c r="H117">
-        <f>VLOOKUP(A117,[1]Planilha3!$A:$B,2,0)</f>
         <v>46163048.200000003</v>
       </c>
     </row>
@@ -6332,7 +4003,6 @@
         <v>4.7224508188038916E-2</v>
       </c>
       <c r="H118">
-        <f>VLOOKUP(A118,[1]Planilha3!$A:$B,2,0)</f>
         <v>46231214.210000001</v>
       </c>
     </row>
@@ -6363,7 +4033,6 @@
         <v>4.7645157328487953E-2</v>
       </c>
       <c r="H119">
-        <f>VLOOKUP(A119,[1]Planilha3!$A:$B,2,0)</f>
         <v>46247960.43</v>
       </c>
     </row>
@@ -6394,7 +4063,6 @@
         <v>4.8065975435283681E-2</v>
       </c>
       <c r="H120">
-        <f>VLOOKUP(A120,[1]Planilha3!$A:$B,2,0)</f>
         <v>46167954.600000001</v>
       </c>
     </row>
@@ -6425,7 +4093,6 @@
         <v>4.8486962576296477E-2</v>
       </c>
       <c r="H121">
-        <f>VLOOKUP(A121,[1]Planilha3!$A:$B,2,0)</f>
         <v>46151727.799999997</v>
       </c>
     </row>
@@ -6456,7 +4123,6 @@
         <v>4.8908118819424029E-2</v>
       </c>
       <c r="H122">
-        <f>VLOOKUP(A122,[1]Planilha3!$A:$B,2,0)</f>
         <v>45993104.350000001</v>
       </c>
     </row>
@@ -6487,7 +4153,6 @@
         <v>4.9329444232591335E-2</v>
       </c>
       <c r="H123">
-        <f>VLOOKUP(A123,[1]Planilha3!$A:$B,2,0)</f>
         <v>45983756.659999996</v>
       </c>
     </row>
@@ -6518,7 +4183,6 @@
         <v>4.9750938883750706E-2</v>
       </c>
       <c r="H124">
-        <f>VLOOKUP(A124,[1]Planilha3!$A:$B,2,0)</f>
         <v>45979708.18</v>
       </c>
     </row>
@@ -6549,7 +4213,6 @@
         <v>5.0172602840881542E-2</v>
       </c>
       <c r="H125">
-        <f>VLOOKUP(A125,[1]Planilha3!$A:$B,2,0)</f>
         <v>45969978.57</v>
       </c>
     </row>
@@ -6580,7 +4243,6 @@
         <v>5.0594436171990553E-2</v>
       </c>
       <c r="H126">
-        <f>VLOOKUP(A126,[1]Planilha3!$A:$B,2,0)</f>
         <v>45915226.219999999</v>
       </c>
     </row>
@@ -6611,7 +4273,6 @@
         <v>5.1016438945111986E-2</v>
       </c>
       <c r="H127">
-        <f>VLOOKUP(A127,[1]Planilha3!$A:$B,2,0)</f>
         <v>46016501.579999998</v>
       </c>
     </row>
@@ -6642,7 +4303,6 @@
         <v>5.1438611228307396E-2</v>
       </c>
       <c r="H128">
-        <f>VLOOKUP(A128,[1]Planilha3!$A:$B,2,0)</f>
         <v>45994037.079999998</v>
       </c>
     </row>
@@ -6673,7 +4333,6 @@
         <v>5.1860953089665651E-2</v>
       </c>
       <c r="H129">
-        <f>VLOOKUP(A129,[1]Planilha3!$A:$B,2,0)</f>
         <v>46041320.100000001</v>
       </c>
     </row>
@@ -6704,7 +4363,6 @@
         <v>5.2283464597302709E-2</v>
       </c>
       <c r="H130">
-        <f>VLOOKUP(A130,[1]Planilha3!$A:$B,2,0)</f>
         <v>45997935.969999999</v>
       </c>
     </row>
@@ -6735,7 +4393,6 @@
         <v>5.270614581936206E-2</v>
       </c>
       <c r="H131">
-        <f>VLOOKUP(A131,[1]Planilha3!$A:$B,2,0)</f>
         <v>46002557.009999998</v>
       </c>
     </row>
@@ -6766,7 +4423,6 @@
         <v>5.3128996824014729E-2</v>
       </c>
       <c r="H132">
-        <f>VLOOKUP(A132,[1]Planilha3!$A:$B,2,0)</f>
         <v>45878699.909999996</v>
       </c>
     </row>
@@ -6797,7 +4453,6 @@
         <v>5.3552017679459052E-2</v>
       </c>
       <c r="H133">
-        <f>VLOOKUP(A133,[1]Planilha3!$A:$B,2,0)</f>
         <v>45750587.060000002</v>
       </c>
     </row>
@@ -6828,7 +4483,6 @@
         <v>5.3975208453920454E-2</v>
       </c>
       <c r="H134">
-        <f>VLOOKUP(A134,[1]Planilha3!$A:$B,2,0)</f>
         <v>45841181.439999998</v>
       </c>
     </row>
@@ -6859,7 +4513,6 @@
         <v>5.4398569215652115E-2</v>
       </c>
       <c r="H135">
-        <f>VLOOKUP(A135,[1]Planilha3!$A:$B,2,0)</f>
         <v>45826486</v>
       </c>
     </row>
@@ -6890,7 +4543,6 @@
         <v>5.4822100032934529E-2</v>
       </c>
       <c r="H136">
-        <f>VLOOKUP(A136,[1]Planilha3!$A:$B,2,0)</f>
         <v>45888450.640000001</v>
       </c>
     </row>
@@ -6921,7 +4573,6 @@
         <v>5.5264671741445337E-2</v>
       </c>
       <c r="H137">
-        <f>VLOOKUP(A137,[1]Planilha3!$A:$B,2,0)</f>
         <v>45679496.32</v>
       </c>
     </row>
@@ -6952,7 +4603,6 @@
         <v>5.5707429139767894E-2</v>
       </c>
       <c r="H138">
-        <f>VLOOKUP(A138,[1]Planilha3!$A:$B,2,0)</f>
         <v>45675403.240000002</v>
       </c>
     </row>
@@ -6983,7 +4633,6 @@
         <v>5.6150372305812102E-2</v>
       </c>
       <c r="H139">
-        <f>VLOOKUP(A139,[1]Planilha3!$A:$B,2,0)</f>
         <v>45752976.969999999</v>
       </c>
     </row>
@@ -7014,7 +4663,6 @@
         <v>5.65935013175205E-2</v>
       </c>
       <c r="H140">
-        <f>VLOOKUP(A140,[1]Planilha3!$A:$B,2,0)</f>
         <v>45714700.93</v>
       </c>
     </row>
@@ -7045,7 +4693,6 @@
         <v>5.7036816252868272E-2</v>
       </c>
       <c r="H141">
-        <f>VLOOKUP(A141,[1]Planilha3!$A:$B,2,0)</f>
         <v>45628165.350000001</v>
       </c>
     </row>
@@ -7076,7 +4723,6 @@
         <v>5.7480317189863461E-2</v>
       </c>
       <c r="H142">
-        <f>VLOOKUP(A142,[1]Planilha3!$A:$B,2,0)</f>
         <v>45662567.530000001</v>
       </c>
     </row>
@@ -7107,7 +4753,6 @@
         <v>5.7924004206546753E-2</v>
       </c>
       <c r="H143">
-        <f>VLOOKUP(A143,[1]Planilha3!$A:$B,2,0)</f>
         <v>45383621.390000001</v>
       </c>
     </row>
@@ -7138,7 +4783,6 @@
         <v>5.8367877380991695E-2</v>
       </c>
       <c r="H144">
-        <f>VLOOKUP(A144,[1]Planilha3!$A:$B,2,0)</f>
         <v>44908084.689999998</v>
       </c>
     </row>
@@ -7169,7 +4813,6 @@
         <v>5.8811936791304475E-2</v>
       </c>
       <c r="H145">
-        <f>VLOOKUP(A145,[1]Planilha3!$A:$B,2,0)</f>
         <v>45012277.07</v>
       </c>
     </row>
@@ -7200,7 +4843,6 @@
         <v>5.9256182515624145E-2</v>
       </c>
       <c r="H146">
-        <f>VLOOKUP(A146,[1]Planilha3!$A:$B,2,0)</f>
         <v>44319996.259999998</v>
       </c>
     </row>
@@ -7231,7 +4873,6 @@
         <v>5.9700614632122173E-2</v>
       </c>
       <c r="H147">
-        <f>VLOOKUP(A147,[1]Planilha3!$A:$B,2,0)</f>
         <v>44378196.32</v>
       </c>
     </row>
@@ -7262,7 +4903,6 @@
         <v>6.0145233219003336E-2</v>
       </c>
       <c r="H148">
-        <f>VLOOKUP(A148,[1]Planilha3!$A:$B,2,0)</f>
         <v>44378296.68</v>
       </c>
     </row>
@@ -7293,7 +4933,6 @@
         <v>6.0590038354505049E-2</v>
       </c>
       <c r="H149">
-        <f>VLOOKUP(A149,[1]Planilha3!$A:$B,2,0)</f>
         <v>43841110.990000002</v>
       </c>
     </row>
@@ -7324,7 +4963,6 @@
         <v>6.1035030116897593E-2</v>
       </c>
       <c r="H150">
-        <f>VLOOKUP(A150,[1]Planilha3!$A:$B,2,0)</f>
         <v>43487158.409999996</v>
       </c>
     </row>
@@ -7355,7 +4993,6 @@
         <v>6.1480208584483886E-2</v>
       </c>
       <c r="H151">
-        <f>VLOOKUP(A151,[1]Planilha3!$A:$B,2,0)</f>
         <v>43474490.68</v>
       </c>
     </row>
@@ -7386,7 +5023,6 @@
         <v>6.1925573835599712E-2</v>
       </c>
       <c r="H152">
-        <f>VLOOKUP(A152,[1]Planilha3!$A:$B,2,0)</f>
         <v>43592152.770000003</v>
       </c>
     </row>
@@ -7417,7 +5053,6 @@
         <v>6.2371125948613937E-2</v>
       </c>
       <c r="H153">
-        <f>VLOOKUP(A153,[1]Planilha3!$A:$B,2,0)</f>
         <v>43529147.200000003</v>
       </c>
     </row>
@@ -7448,7 +5083,6 @@
         <v>6.281686500192829E-2</v>
       </c>
       <c r="H154">
-        <f>VLOOKUP(A154,[1]Planilha3!$A:$B,2,0)</f>
         <v>43635302.469999999</v>
       </c>
     </row>
@@ -7479,7 +5113,6 @@
         <v>6.3262791073977143E-2</v>
       </c>
       <c r="H155">
-        <f>VLOOKUP(A155,[1]Planilha3!$A:$B,2,0)</f>
         <v>43424347.450000003</v>
       </c>
     </row>
@@ -7510,7 +5143,6 @@
         <v>6.370890424322817E-2</v>
       </c>
       <c r="H156">
-        <f>VLOOKUP(A156,[1]Planilha3!$A:$B,2,0)</f>
         <v>43380074.719999999</v>
       </c>
     </row>
@@ -7541,7 +5173,6 @@
         <v>6.4155204588181469E-2</v>
       </c>
       <c r="H157">
-        <f>VLOOKUP(A157,[1]Planilha3!$A:$B,2,0)</f>
         <v>43144368.829999998</v>
       </c>
     </row>
@@ -7572,7 +5203,6 @@
         <v>6.4601692187370663E-2</v>
       </c>
       <c r="H158">
-        <f>VLOOKUP(A158,[1]Planilha3!$A:$B,2,0)</f>
         <v>42945279.039999999</v>
       </c>
     </row>
@@ -7603,7 +5233,6 @@
         <v>6.5048367119361794E-2</v>
       </c>
       <c r="H159">
-        <f>VLOOKUP(A159,[1]Planilha3!$A:$B,2,0)</f>
         <v>42996420.579999998</v>
       </c>
     </row>
@@ -7634,7 +5263,6 @@
         <v>6.5533102582688851E-2</v>
       </c>
       <c r="H160">
-        <f>VLOOKUP(A160,[1]Planilha3!$A:$B,2,0)</f>
         <v>42758149.409999996</v>
       </c>
     </row>
@@ -7665,7 +5293,6 @@
         <v>6.6018058663667389E-2</v>
       </c>
       <c r="H161">
-        <f>VLOOKUP(A161,[1]Planilha3!$A:$B,2,0)</f>
         <v>42505894.799999997</v>
       </c>
     </row>
@@ -7696,7 +5323,6 @@
         <v>6.6503235462706867E-2</v>
       </c>
       <c r="H162">
-        <f>VLOOKUP(A162,[1]Planilha3!$A:$B,2,0)</f>
         <v>41802500.350000001</v>
       </c>
     </row>
@@ -7727,7 +5353,6 @@
         <v>6.6988633080262927E-2</v>
       </c>
       <c r="H163">
-        <f>VLOOKUP(A163,[1]Planilha3!$A:$B,2,0)</f>
         <v>41577824.340000004</v>
       </c>
     </row>
@@ -7758,7 +5383,6 @@
         <v>6.7474251616836733E-2</v>
       </c>
       <c r="H164">
-        <f>VLOOKUP(A164,[1]Planilha3!$A:$B,2,0)</f>
         <v>41362551.5</v>
       </c>
     </row>
@@ -7789,7 +5413,6 @@
         <v>6.7960091172974968E-2</v>
       </c>
       <c r="H165">
-        <f>VLOOKUP(A165,[1]Planilha3!$A:$B,2,0)</f>
         <v>41432287.07</v>
       </c>
     </row>
@@ -7820,7 +5443,6 @@
         <v>6.8446151849270498E-2</v>
       </c>
       <c r="H166">
-        <f>VLOOKUP(A166,[1]Planilha3!$A:$B,2,0)</f>
         <v>41489549.520000003</v>
       </c>
     </row>
@@ -7851,7 +5473,6 @@
         <v>6.893243374636171E-2</v>
       </c>
       <c r="H167">
-        <f>VLOOKUP(A167,[1]Planilha3!$A:$B,2,0)</f>
         <v>41428203.450000003</v>
       </c>
     </row>
@@ -7882,7 +5503,6 @@
         <v>6.9418936964932731E-2</v>
       </c>
       <c r="H168">
-        <f>VLOOKUP(A168,[1]Planilha3!$A:$B,2,0)</f>
         <v>41469496.369999997</v>
       </c>
     </row>
@@ -7913,7 +5533,6 @@
         <v>6.9905661605713654E-2</v>
       </c>
       <c r="H169">
-        <f>VLOOKUP(A169,[1]Planilha3!$A:$B,2,0)</f>
         <v>41417725.649999999</v>
       </c>
     </row>
@@ -7944,7 +5563,6 @@
         <v>7.0392607769480309E-2</v>
       </c>
       <c r="H170">
-        <f>VLOOKUP(A170,[1]Planilha3!$A:$B,2,0)</f>
         <v>41301111.460000001</v>
       </c>
     </row>
@@ -7975,7 +5593,6 @@
         <v>7.0879775557054492E-2</v>
       </c>
       <c r="H171">
-        <f>VLOOKUP(A171,[1]Planilha3!$A:$B,2,0)</f>
         <v>41197536.740000002</v>
       </c>
     </row>
@@ -8006,7 +5623,6 @@
         <v>7.136716506930374E-2</v>
       </c>
       <c r="H172">
-        <f>VLOOKUP(A172,[1]Planilha3!$A:$B,2,0)</f>
         <v>41233531.280000001</v>
       </c>
     </row>
@@ -8037,7 +5653,6 @@
         <v>7.1854776407141774E-2</v>
       </c>
       <c r="H173">
-        <f>VLOOKUP(A173,[1]Planilha3!$A:$B,2,0)</f>
         <v>41344049.32</v>
       </c>
     </row>
@@ -8068,7 +5683,6 @@
         <v>7.2342609671527836E-2</v>
       </c>
       <c r="H174">
-        <f>VLOOKUP(A174,[1]Planilha3!$A:$B,2,0)</f>
         <v>41368054.600000001</v>
       </c>
     </row>
@@ -8099,7 +5713,6 @@
         <v>7.2830664963467573E-2</v>
       </c>
       <c r="H175">
-        <f>VLOOKUP(A175,[1]Planilha3!$A:$B,2,0)</f>
         <v>41387432.829999998</v>
       </c>
     </row>
@@ -8130,7 +5743,6 @@
         <v>7.3318942384012376E-2</v>
       </c>
       <c r="H176">
-        <f>VLOOKUP(A176,[1]Planilha3!$A:$B,2,0)</f>
         <v>41034062</v>
       </c>
     </row>
@@ -8161,7 +5773,6 @@
         <v>7.3807442034259596E-2</v>
       </c>
       <c r="H177">
-        <f>VLOOKUP(A177,[1]Planilha3!$A:$B,2,0)</f>
         <v>41073417.32</v>
       </c>
     </row>
@@ -8192,7 +5803,6 @@
         <v>7.429616401535255E-2</v>
       </c>
       <c r="H178">
-        <f>VLOOKUP(A178,[1]Planilha3!$A:$B,2,0)</f>
         <v>40920410.060000002</v>
       </c>
     </row>
@@ -8223,7 +5833,6 @@
         <v>7.478510842848074E-2</v>
       </c>
       <c r="H179">
-        <f>VLOOKUP(A179,[1]Planilha3!$A:$B,2,0)</f>
         <v>40860129.859999999</v>
       </c>
     </row>
@@ -8254,7 +5863,6 @@
         <v>7.5274275374879851E-2</v>
       </c>
       <c r="H180">
-        <f>VLOOKUP(A180,[1]Planilha3!$A:$B,2,0)</f>
         <v>40706147.939999998</v>
       </c>
     </row>
@@ -8285,7 +5893,6 @@
         <v>7.5763664955831089E-2</v>
       </c>
       <c r="H181">
-        <f>VLOOKUP(A181,[1]Planilha3!$A:$B,2,0)</f>
         <v>40347536.32</v>
       </c>
     </row>
@@ -8316,7 +5923,6 @@
         <v>7.6253277272662512E-2</v>
       </c>
       <c r="H182">
-        <f>VLOOKUP(A182,[1]Planilha3!$A:$B,2,0)</f>
         <v>40393103.009999998</v>
       </c>
     </row>
@@ -8347,7 +5953,6 @@
         <v>7.6743112426747695E-2</v>
       </c>
       <c r="H183">
-        <f>VLOOKUP(A183,[1]Planilha3!$A:$B,2,0)</f>
         <v>40224311.07</v>
       </c>
     </row>
@@ -8378,7 +5983,6 @@
         <v>7.72331705195064E-2</v>
       </c>
       <c r="H184">
-        <f>VLOOKUP(A184,[1]Planilha3!$A:$B,2,0)</f>
         <v>40123171.189999998</v>
       </c>
     </row>
@@ -8409,7 +6013,6 @@
         <v>7.7723451652405018E-2</v>
       </c>
       <c r="H185">
-        <f>VLOOKUP(A185,[1]Planilha3!$A:$B,2,0)</f>
         <v>39901347.759999998</v>
       </c>
     </row>
@@ -8440,7 +6043,6 @@
         <v>7.8213955926955459E-2</v>
       </c>
       <c r="H186">
-        <f>VLOOKUP(A186,[1]Planilha3!$A:$B,2,0)</f>
         <v>39725422.810000002</v>
       </c>
     </row>
@@ -8471,7 +6073,6 @@
         <v>7.8704683444716483E-2</v>
       </c>
       <c r="H187">
-        <f>VLOOKUP(A187,[1]Planilha3!$A:$B,2,0)</f>
         <v>39634662.640000001</v>
       </c>
     </row>
@@ -8502,7 +6103,6 @@
         <v>7.9195634307292595E-2</v>
       </c>
       <c r="H188">
-        <f>VLOOKUP(A188,[1]Planilha3!$A:$B,2,0)</f>
         <v>39642551.93</v>
       </c>
     </row>
@@ -8533,7 +6133,6 @@
         <v>7.9686808616334925E-2</v>
       </c>
       <c r="H189">
-        <f>VLOOKUP(A189,[1]Planilha3!$A:$B,2,0)</f>
         <v>39514133.770000003</v>
       </c>
     </row>
@@ -8564,7 +6163,6 @@
         <v>8.0178206473540348E-2</v>
       </c>
       <c r="H190">
-        <f>VLOOKUP(A190,[1]Planilha3!$A:$B,2,0)</f>
         <v>39364951.670000002</v>
       </c>
     </row>
@@ -8595,7 +6193,6 @@
         <v>8.0669827980652586E-2</v>
       </c>
       <c r="H191">
-        <f>VLOOKUP(A191,[1]Planilha3!$A:$B,2,0)</f>
         <v>39580221.960000001</v>
       </c>
     </row>
@@ -8626,7 +6223,6 @@
         <v>8.1161673239461329E-2</v>
       </c>
       <c r="H192">
-        <f>VLOOKUP(A192,[1]Planilha3!$A:$B,2,0)</f>
         <v>39569298.490000002</v>
       </c>
     </row>
@@ -8657,7 +6253,6 @@
         <v>8.1691842489167943E-2</v>
       </c>
       <c r="H193">
-        <f>VLOOKUP(A193,[1]Planilha3!$A:$B,2,0)</f>
         <v>39755121.520000003</v>
       </c>
     </row>
@@ -8688,7 +6283,6 @@
         <v>8.2222271717969475E-2</v>
       </c>
       <c r="H194">
-        <f>VLOOKUP(A194,[1]Planilha3!$A:$B,2,0)</f>
         <v>39716788.789999999</v>
       </c>
     </row>
@@ -8719,7 +6313,6 @@
         <v>8.2752961053351948E-2</v>
       </c>
       <c r="H195">
-        <f>VLOOKUP(A195,[1]Planilha3!$A:$B,2,0)</f>
         <v>39678132.689999998</v>
       </c>
     </row>
@@ -8750,7 +6343,6 @@
         <v>8.3283910622863777E-2</v>
       </c>
       <c r="H196">
-        <f>VLOOKUP(A196,[1]Planilha3!$A:$B,2,0)</f>
         <v>39613514.140000001</v>
       </c>
     </row>
@@ -8781,7 +6373,6 @@
         <v>8.3815120554115996E-2</v>
       </c>
       <c r="H197">
-        <f>VLOOKUP(A197,[1]Planilha3!$A:$B,2,0)</f>
         <v>39637411.68</v>
       </c>
     </row>
@@ -8812,7 +6403,6 @@
         <v>8.4346590974782254E-2</v>
       </c>
       <c r="H198">
-        <f>VLOOKUP(A198,[1]Planilha3!$A:$B,2,0)</f>
         <v>39629647.280000001</v>
       </c>
     </row>
@@ -8843,7 +6433,6 @@
         <v>8.4878322012598595E-2</v>
       </c>
       <c r="H199">
-        <f>VLOOKUP(A199,[1]Planilha3!$A:$B,2,0)</f>
         <v>39575786.850000001</v>
       </c>
     </row>
@@ -8874,7 +6463,6 @@
         <v>8.5410313795363901E-2</v>
       </c>
       <c r="H200">
-        <f>VLOOKUP(A200,[1]Planilha3!$A:$B,2,0)</f>
         <v>39574965.590000004</v>
       </c>
     </row>
@@ -8905,7 +6493,6 @@
         <v>8.5942566450939895E-2</v>
       </c>
       <c r="H201">
-        <f>VLOOKUP(A201,[1]Planilha3!$A:$B,2,0)</f>
         <v>39404187.899999999</v>
       </c>
     </row>
@@ -8936,7 +6523,6 @@
         <v>8.6475080107250468E-2</v>
       </c>
       <c r="H202">
-        <f>VLOOKUP(A202,[1]Planilha3!$A:$B,2,0)</f>
         <v>39468056.140000001</v>
       </c>
     </row>
@@ -8967,7 +6553,6 @@
         <v>8.7007854892282799E-2</v>
       </c>
       <c r="H203">
-        <f>VLOOKUP(A203,[1]Planilha3!$A:$B,2,0)</f>
         <v>39482775.43</v>
       </c>
     </row>
@@ -8998,7 +6583,6 @@
         <v>8.7540890934086457E-2</v>
       </c>
       <c r="H204">
-        <f>VLOOKUP(A204,[1]Planilha3!$A:$B,2,0)</f>
         <v>39565282.880000003</v>
       </c>
     </row>
@@ -9029,7 +6613,6 @@
         <v>8.8074188360773853E-2</v>
       </c>
       <c r="H205">
-        <f>VLOOKUP(A205,[1]Planilha3!$A:$B,2,0)</f>
         <v>39594228.850000001</v>
       </c>
     </row>
@@ -9060,7 +6643,6 @@
         <v>8.8607747300520456E-2</v>
       </c>
       <c r="H206">
-        <f>VLOOKUP(A206,[1]Planilha3!$A:$B,2,0)</f>
         <v>39183418.420000002</v>
       </c>
     </row>
@@ -9091,7 +6673,6 @@
         <v>8.9141567881564354E-2</v>
       </c>
       <c r="H207">
-        <f>VLOOKUP(A207,[1]Planilha3!$A:$B,2,0)</f>
         <v>38923791.299999997</v>
       </c>
     </row>
@@ -9122,7 +6703,6 @@
         <v>8.9675650232206472E-2</v>
       </c>
       <c r="H208">
-        <f>VLOOKUP(A208,[1]Planilha3!$A:$B,2,0)</f>
         <v>38734645.659999996</v>
       </c>
     </row>
@@ -9153,7 +6733,6 @@
         <v>9.0209994480811018E-2</v>
       </c>
       <c r="H209">
-        <f>VLOOKUP(A209,[1]Planilha3!$A:$B,2,0)</f>
         <v>38653555.600000001</v>
       </c>
     </row>
@@ -9184,7 +6763,6 @@
         <v>9.0744600755804594E-2</v>
       </c>
       <c r="H210">
-        <f>VLOOKUP(A210,[1]Planilha3!$A:$B,2,0)</f>
         <v>38503718.259999998</v>
       </c>
     </row>
@@ -9215,7 +6793,6 @@
         <v>9.1279469185677309E-2</v>
       </c>
       <c r="H211">
-        <f>VLOOKUP(A211,[1]Planilha3!$A:$B,2,0)</f>
         <v>38516485.149999999</v>
       </c>
     </row>
@@ -9246,7 +6823,6 @@
         <v>9.1814599898981886E-2</v>
       </c>
       <c r="H212">
-        <f>VLOOKUP(A212,[1]Planilha3!$A:$B,2,0)</f>
         <v>38422758.93</v>
       </c>
     </row>
@@ -9277,7 +6853,6 @@
         <v>9.2349993024334331E-2</v>
       </c>
       <c r="H213">
-        <f>VLOOKUP(A213,[1]Planilha3!$A:$B,2,0)</f>
         <v>37960559.600000001</v>
       </c>
     </row>
@@ -9308,7 +6883,6 @@
         <v>9.2885648690413714E-2</v>
       </c>
       <c r="H214">
-        <f>VLOOKUP(A214,[1]Planilha3!$A:$B,2,0)</f>
         <v>37895044.090000004</v>
       </c>
     </row>
@@ -9339,7 +6913,6 @@
         <v>9.342156702596216E-2</v>
       </c>
       <c r="H215">
-        <f>VLOOKUP(A215,[1]Planilha3!$A:$B,2,0)</f>
         <v>37067753.560000002</v>
       </c>
     </row>
@@ -9370,7 +6943,6 @@
         <v>9.395774815978486E-2</v>
       </c>
       <c r="H216">
-        <f>VLOOKUP(A216,[1]Planilha3!$A:$B,2,0)</f>
         <v>36919151.759999998</v>
       </c>
     </row>
@@ -9401,7 +6973,6 @@
         <v>9.4494192220750062E-2</v>
       </c>
       <c r="H217">
-        <f>VLOOKUP(A217,[1]Planilha3!$A:$B,2,0)</f>
         <v>36810860.490000002</v>
       </c>
     </row>
@@ -9432,7 +7003,6 @@
         <v>9.5030899337789521E-2</v>
       </c>
       <c r="H218">
-        <f>VLOOKUP(A218,[1]Planilha3!$A:$B,2,0)</f>
         <v>36428405.759999998</v>
       </c>
     </row>
@@ -9463,7 +7033,6 @@
         <v>9.5567869639897829E-2</v>
       </c>
       <c r="H219">
-        <f>VLOOKUP(A219,[1]Planilha3!$A:$B,2,0)</f>
         <v>36301123.93</v>
       </c>
     </row>
@@ -9494,7 +7063,6 @@
         <v>9.6105103256133306E-2</v>
       </c>
       <c r="H220">
-        <f>VLOOKUP(A220,[1]Planilha3!$A:$B,2,0)</f>
         <v>36084737.039999999</v>
       </c>
     </row>
@@ -9525,7 +7093,6 @@
         <v>9.6642600315617111E-2</v>
       </c>
       <c r="H221">
-        <f>VLOOKUP(A221,[1]Planilha3!$A:$B,2,0)</f>
         <v>35983753.020000003</v>
       </c>
     </row>
@@ -9556,7 +7123,6 @@
         <v>9.7180360947533906E-2</v>
       </c>
       <c r="H222">
-        <f>VLOOKUP(A222,[1]Planilha3!$A:$B,2,0)</f>
         <v>35860872.619999997</v>
       </c>
     </row>
@@ -9587,7 +7153,6 @@
         <v>9.7718385281131859E-2</v>
       </c>
       <c r="H223">
-        <f>VLOOKUP(A223,[1]Planilha3!$A:$B,2,0)</f>
         <v>35585055.770000003</v>
       </c>
     </row>
@@ -9618,7 +7183,6 @@
         <v>9.8256673445722198E-2</v>
       </c>
       <c r="H224">
-        <f>VLOOKUP(A224,[1]Planilha3!$A:$B,2,0)</f>
         <v>35628441.170000002</v>
       </c>
     </row>
@@ -9649,7 +7213,6 @@
         <v>9.8795225570679879E-2</v>
       </c>
       <c r="H225">
-        <f>VLOOKUP(A225,[1]Planilha3!$A:$B,2,0)</f>
         <v>35372300.490000002</v>
       </c>
     </row>
@@ -9680,7 +7243,6 @@
         <v>9.9372433690624318E-2</v>
       </c>
       <c r="H226">
-        <f>VLOOKUP(A226,[1]Planilha3!$A:$B,2,0)</f>
         <v>34755017.990000002</v>
       </c>
     </row>
@@ -9711,7 +7273,6 @@
         <v>9.9949945023766418E-2</v>
       </c>
       <c r="H227">
-        <f>VLOOKUP(A227,[1]Planilha3!$A:$B,2,0)</f>
         <v>34503068.880000003</v>
       </c>
     </row>
@@ -9742,7 +7303,6 @@
         <v>0.10052775972938677</v>
       </c>
       <c r="H228">
-        <f>VLOOKUP(A228,[1]Planilha3!$A:$B,2,0)</f>
         <v>34362623.509999998</v>
       </c>
     </row>
@@ -9773,7 +7333,6 @@
         <v>0.10110587796685011</v>
       </c>
       <c r="H229">
-        <f>VLOOKUP(A229,[1]Planilha3!$A:$B,2,0)</f>
         <v>34135541.520000003</v>
       </c>
     </row>
@@ -9804,7 +7363,6 @@
         <v>0.1016842998956049</v>
       </c>
       <c r="H230">
-        <f>VLOOKUP(A230,[1]Planilha3!$A:$B,2,0)</f>
         <v>34045611.039999999</v>
       </c>
     </row>
@@ -9835,7 +7393,6 @@
         <v>0.10226302567518308</v>
       </c>
       <c r="H231">
-        <f>VLOOKUP(A231,[1]Planilha3!$A:$B,2,0)</f>
         <v>33917845.630000003</v>
       </c>
     </row>
@@ -9866,7 +7423,6 @@
         <v>0.10284205546520053</v>
       </c>
       <c r="H232">
-        <f>VLOOKUP(A232,[1]Planilha3!$A:$B,2,0)</f>
         <v>33908950.359999999</v>
       </c>
     </row>
@@ -9897,7 +7453,6 @@
         <v>0.10342138942535706</v>
       </c>
       <c r="H233">
-        <f>VLOOKUP(A233,[1]Planilha3!$A:$B,2,0)</f>
         <v>33846317.960000001</v>
       </c>
     </row>
@@ -9928,7 +7483,6 @@
         <v>0.10400102771543618</v>
       </c>
       <c r="H234">
-        <f>VLOOKUP(A234,[1]Planilha3!$A:$B,2,0)</f>
         <v>33764049.719999999</v>
       </c>
     </row>
@@ -9959,7 +7513,6 @@
         <v>0.10458097049530535</v>
       </c>
       <c r="H235">
-        <f>VLOOKUP(A235,[1]Planilha3!$A:$B,2,0)</f>
         <v>33451910.41</v>
       </c>
     </row>
@@ -9990,7 +7543,6 @@
         <v>0.10516121792491617</v>
       </c>
       <c r="H236">
-        <f>VLOOKUP(A236,[1]Planilha3!$A:$B,2,0)</f>
         <v>33470226.760000002</v>
       </c>
     </row>
@@ -10021,7 +7573,6 @@
         <v>0.10574177016430442</v>
       </c>
       <c r="H237">
-        <f>VLOOKUP(A237,[1]Planilha3!$A:$B,2,0)</f>
         <v>33423741.260000002</v>
       </c>
     </row>
@@ -10052,7 +7603,6 @@
         <v>0.10632262737358933</v>
       </c>
       <c r="H238">
-        <f>VLOOKUP(A238,[1]Planilha3!$A:$B,2,0)</f>
         <v>33472242</v>
       </c>
     </row>
@@ -10083,7 +7633,6 @@
         <v>0.10690378971297498</v>
       </c>
       <c r="H239">
-        <f>VLOOKUP(A239,[1]Planilha3!$A:$B,2,0)</f>
         <v>33483088.23</v>
       </c>
     </row>
@@ -10114,7 +7663,6 @@
         <v>0.10748525734274916</v>
       </c>
       <c r="H240">
-        <f>VLOOKUP(A240,[1]Planilha3!$A:$B,2,0)</f>
         <v>33439829.850000001</v>
       </c>
     </row>
@@ -10145,7 +7693,6 @@
         <v>0.10806703042328381</v>
       </c>
       <c r="H241">
-        <f>VLOOKUP(A241,[1]Planilha3!$A:$B,2,0)</f>
         <v>33337805.329999998</v>
       </c>
     </row>
@@ -10176,7 +7723,6 @@
         <v>0.10864910911503545</v>
       </c>
       <c r="H242">
-        <f>VLOOKUP(A242,[1]Planilha3!$A:$B,2,0)</f>
         <v>33450271.449999999</v>
       </c>
     </row>
@@ -10207,7 +7753,6 @@
         <v>0.10923149357854456</v>
       </c>
       <c r="H243">
-        <f>VLOOKUP(A243,[1]Planilha3!$A:$B,2,0)</f>
         <v>33161847.890000001</v>
       </c>
     </row>
@@ -10238,7 +7783,6 @@
         <v>0.10981418397443621</v>
       </c>
       <c r="H244">
-        <f>VLOOKUP(A244,[1]Planilha3!$A:$B,2,0)</f>
         <v>32939209.510000002</v>
       </c>
     </row>
@@ -10269,7 +7813,6 @@
         <v>0.11039718046341984</v>
       </c>
       <c r="H245">
-        <f>VLOOKUP(A245,[1]Planilha3!$A:$B,2,0)</f>
         <v>32439366.219999999</v>
       </c>
     </row>
@@ -10300,7 +7843,6 @@
         <v>0.11098048320628906</v>
       </c>
       <c r="H246">
-        <f>VLOOKUP(A246,[1]Planilha3!$A:$B,2,0)</f>
         <v>31937952.210000001</v>
       </c>
     </row>
@@ -10331,7 +7873,6 @@
         <v>0.11156409236392206</v>
       </c>
       <c r="H247">
-        <f>VLOOKUP(A247,[1]Planilha3!$A:$B,2,0)</f>
         <v>30708769.170000002</v>
       </c>
     </row>
@@ -10362,7 +7903,6 @@
         <v>0.11214800809728165</v>
       </c>
       <c r="H248">
-        <f>VLOOKUP(A248,[1]Planilha3!$A:$B,2,0)</f>
         <v>30570507.960000001</v>
       </c>
     </row>
@@ -10393,7 +7933,6 @@
         <v>0.11273223056741521</v>
       </c>
       <c r="H249">
-        <f>VLOOKUP(A249,[1]Planilha3!$A:$B,2,0)</f>
         <v>30473150.559999999</v>
       </c>
     </row>
@@ -10424,7 +7963,6 @@
         <v>0.11331675993545454</v>
       </c>
       <c r="H250">
-        <f>VLOOKUP(A250,[1]Planilha3!$A:$B,2,0)</f>
         <v>30297058.5</v>
       </c>
     </row>
@@ -10455,7 +7993,6 @@
         <v>0.11390159636261621</v>
       </c>
       <c r="H251">
-        <f>VLOOKUP(A251,[1]Planilha3!$A:$B,2,0)</f>
         <v>30263808.960000001</v>
       </c>
     </row>
@@ -10486,7 +8023,6 @@
         <v>0.11448674001020143</v>
       </c>
       <c r="H252">
-        <f>VLOOKUP(A252,[1]Planilha3!$A:$B,2,0)</f>
         <v>29883376.440000001</v>
       </c>
     </row>
@@ -10517,7 +8053,6 @@
         <v>0.11507219103959621</v>
       </c>
       <c r="H253">
-        <f>VLOOKUP(A253,[1]Planilha3!$A:$B,2,0)</f>
         <v>29834775.640000001</v>
       </c>
     </row>
@@ -10548,7 +8083,6 @@
         <v>0.11565794961227116</v>
       </c>
       <c r="H254">
-        <f>VLOOKUP(A254,[1]Planilha3!$A:$B,2,0)</f>
         <v>29696974.010000002</v>
       </c>
     </row>
@@ -10579,7 +8113,6 @@
         <v>0.11624401588978195</v>
       </c>
       <c r="H255">
-        <f>VLOOKUP(A255,[1]Planilha3!$A:$B,2,0)</f>
         <v>29473054.219999999</v>
       </c>
     </row>
@@ -10610,7 +8143,6 @@
         <v>0.11683039003376905</v>
       </c>
       <c r="H256">
-        <f>VLOOKUP(A256,[1]Planilha3!$A:$B,2,0)</f>
         <v>29502452.66</v>
       </c>
     </row>
@@ -10641,7 +8173,6 @@
         <v>0.11741707220595776</v>
       </c>
       <c r="H257">
-        <f>VLOOKUP(A257,[1]Planilha3!$A:$B,2,0)</f>
         <v>29368106.75</v>
       </c>
     </row>
@@ -10672,7 +8203,6 @@
         <v>0.11802344975436108</v>
       </c>
       <c r="H258">
-        <f>VLOOKUP(A258,[1]Planilha3!$A:$B,2,0)</f>
         <v>29288671.359999999</v>
       </c>
     </row>
@@ -10703,7 +8233,6 @@
         <v>0.11863015635960483</v>
       </c>
       <c r="H259">
-        <f>VLOOKUP(A259,[1]Planilha3!$A:$B,2,0)</f>
         <v>29002710.129999999</v>
       </c>
     </row>
@@ -10715,7 +8244,7 @@
         <v>1.0782700599999999</v>
       </c>
       <c r="C260" s="2">
-        <f t="shared" ref="C260:C268" si="9">1+(B260/B259-1)</f>
+        <f t="shared" ref="C260:C274" si="9">1+(B260/B259-1)</f>
         <v>0.99908341766509134</v>
       </c>
       <c r="D260" s="2">
@@ -10734,7 +8263,6 @@
         <v>0.11923719220025486</v>
       </c>
       <c r="H260">
-        <f>VLOOKUP(A260,[1]Planilha3!$A:$B,2,0)</f>
         <v>28974407.640000001</v>
       </c>
     </row>
@@ -10765,7 +8293,6 @@
         <v>0.11984455745497424</v>
       </c>
       <c r="H261">
-        <f>VLOOKUP(A261,[1]Planilha3!$A:$B,2,0)</f>
         <v>29013253.34</v>
       </c>
     </row>
@@ -10796,7 +8323,6 @@
         <v>0.12045225230252288</v>
       </c>
       <c r="H262">
-        <f>VLOOKUP(A262,[1]Planilha3!$A:$B,2,0)</f>
         <v>28874143.539999999</v>
       </c>
     </row>
@@ -10827,7 +8353,6 @@
         <v>0.12106027692175747</v>
       </c>
       <c r="H263">
-        <f>VLOOKUP(A263,[1]Planilha3!$A:$B,2,0)</f>
         <v>28743347.440000001</v>
       </c>
     </row>
@@ -10858,7 +8383,6 @@
         <v>0.12166863149163176</v>
       </c>
       <c r="H264">
-        <f>VLOOKUP(A264,[1]Planilha3!$A:$B,2,0)</f>
         <v>28758557.260000002</v>
       </c>
     </row>
@@ -10889,7 +8413,6 @@
         <v>0.12227731619119697</v>
       </c>
       <c r="H265">
-        <f>VLOOKUP(A265,[1]Planilha3!$A:$B,2,0)</f>
         <v>28769652.969999999</v>
       </c>
     </row>
@@ -10920,7 +8443,6 @@
         <v>0.12288633119960135</v>
       </c>
       <c r="H266">
-        <f>VLOOKUP(A266,[1]Planilha3!$A:$B,2,0)</f>
         <v>28438626.219999999</v>
       </c>
     </row>
@@ -10951,7 +8473,6 @@
         <v>0.12349567669609018</v>
       </c>
       <c r="H267">
-        <f>VLOOKUP(A267,[1]Planilha3!$A:$B,2,0)</f>
         <v>28307424.379999999</v>
       </c>
     </row>
@@ -10982,8 +8503,187 @@
         <v>0.12410535286000601</v>
       </c>
       <c r="H268">
-        <f>VLOOKUP(A268,[1]Planilha3!$A:$B,2,0)</f>
         <v>28054351.32</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B269">
+        <v>1.0899331000000001</v>
+      </c>
+      <c r="C269" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0028996621032853</v>
+      </c>
+      <c r="D269" s="2">
+        <f>PRODUCT(C$2:C269)-1</f>
+        <v>8.9933100000001209E-2</v>
+      </c>
+      <c r="E269">
+        <v>5.4266000000000004E-4</v>
+      </c>
+      <c r="F269">
+        <f t="shared" ref="F269:F274" si="10">1+E269</f>
+        <v>1.00054266</v>
+      </c>
+      <c r="G269">
+        <f>PRODUCT(F$2:F269)-1</f>
+        <v>0.12471535987078908</v>
+      </c>
+      <c r="H269">
+        <v>25814152.764623709</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B270">
+        <v>1.0909575600000001</v>
+      </c>
+      <c r="C270" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0009399292488685</v>
+      </c>
+      <c r="D270" s="2">
+        <f>PRODUCT(C$2:C270)-1</f>
+        <v>9.0957560000001214E-2</v>
+      </c>
+      <c r="E270">
+        <v>5.4266000000000004E-4</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="10"/>
+        <v>1.00054266</v>
+      </c>
+      <c r="G270">
+        <f>PRODUCT(F$2:F270)-1</f>
+        <v>0.12532569790797665</v>
+      </c>
+      <c r="H270">
+        <v>25815935.18959723</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B271">
+        <v>1.0928847900000001</v>
+      </c>
+      <c r="C271" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0017665490122274</v>
+      </c>
+      <c r="D271" s="2">
+        <f>PRODUCT(C$2:C271)-1</f>
+        <v>9.2884790000001161E-2</v>
+      </c>
+      <c r="E271">
+        <v>5.4266000000000004E-4</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="10"/>
+        <v>1.00054266</v>
+      </c>
+      <c r="G271">
+        <f>PRODUCT(F$2:F271)-1</f>
+        <v>0.12593636715120349</v>
+      </c>
+      <c r="H271">
+        <v>25047898.213330321</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B272">
+        <v>1.09168504</v>
+      </c>
+      <c r="C272" s="2">
+        <f t="shared" si="9"/>
+        <v>0.99890221731423301</v>
+      </c>
+      <c r="D272" s="2">
+        <f>PRODUCT(C$2:C272)-1</f>
+        <v>9.1685040000001106E-2</v>
+      </c>
+      <c r="E272">
+        <v>5.4266000000000004E-4</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="10"/>
+        <v>1.00054266</v>
+      </c>
+      <c r="G272">
+        <f>PRODUCT(F$2:F272)-1</f>
+        <v>0.12654736778020181</v>
+      </c>
+      <c r="H272">
+        <v>24983176.817965817</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>45806</v>
+      </c>
+      <c r="B273">
+        <v>1.09283872</v>
+      </c>
+      <c r="C273" s="2">
+        <f t="shared" si="9"/>
+        <v>1.0010567883205581</v>
+      </c>
+      <c r="D273" s="2">
+        <f>PRODUCT(C$2:C273)-1</f>
+        <v>9.2838720000001151E-2</v>
+      </c>
+      <c r="E273">
+        <v>5.4266000000000004E-4</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="10"/>
+        <v>1.00054266</v>
+      </c>
+      <c r="G273">
+        <f>PRODUCT(F$2:F273)-1</f>
+        <v>0.12715869997480156</v>
+      </c>
+      <c r="H273">
+        <v>24920824.577445358</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B274">
+        <v>1.09076259</v>
+      </c>
+      <c r="C274" s="2">
+        <f t="shared" si="9"/>
+        <v>0.99810024117739893</v>
+      </c>
+      <c r="D274" s="2">
+        <f>PRODUCT(C$2:C274)-1</f>
+        <v>9.0762590000001087E-2</v>
+      </c>
+      <c r="E274">
+        <v>5.4266000000000004E-4</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="10"/>
+        <v>1.00054266</v>
+      </c>
+      <c r="G274">
+        <f>PRODUCT(F$2:F274)-1</f>
+        <v>0.12777036391492991</v>
+      </c>
+      <c r="H274">
+        <v>24725386.741609659</v>
       </c>
     </row>
   </sheetData>
